--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>868397.1697645686</v>
+        <v>863888.4340565432</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30060817.87599994</v>
+        <v>30060817.87599993</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7371539.748594785</v>
+        <v>7371539.748594788</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>420.2033883127402</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H11" t="n">
-        <v>94.99613146261849</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.44215023562773</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>126.0345539223849</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H13" t="n">
-        <v>55.28422423249394</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I13" t="n">
         <v>72.20225288674683</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.84378871276413</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>153.0370636576713</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3344142389604</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>283.5280101374448</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>210.0945428230611</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6137950796671</v>
+        <v>218.5706518302273</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H15" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>47.65609537867783</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7109207868414</v>
+        <v>56.42129924405998</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T16" t="n">
         <v>237.1310885301926</v>
@@ -1824,7 +1824,7 @@
         <v>277.3344142389604</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>80.66540959446651</v>
       </c>
       <c r="F17" t="n">
-        <v>365.2762249312428</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.3261064128874</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H18" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7109207868414</v>
       </c>
       <c r="H19" t="n">
-        <v>23.90808324285318</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I19" t="n">
-        <v>72.20225288674683</v>
+        <v>71.71565792364397</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>153.0370636576713</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U19" t="n">
         <v>277.3344142389604</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3261064128874</v>
+        <v>389.4630341300783</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>288.4803363770416</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H21" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.39688208744704</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>7.517003177980129</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.843788712764123</v>
+        <v>6.843788712764137</v>
       </c>
       <c r="S22" t="n">
         <v>153.0370636576713</v>
@@ -2295,7 +2295,7 @@
         <v>237.1310885301926</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2335,7 +2335,7 @@
         <v>398.3261064128874</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>117.039001164153</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>84.68378124582595</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H24" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>107.1967320130958</v>
+        <v>4.569015844488166</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>153.0370636576713</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U25" t="n">
         <v>277.3344142389604</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>121.177952765655</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>300.5514692881723</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>210.0945428230611</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2651,7 +2651,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H27" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.53649299575928</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.91040640466983</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>6.843788712764123</v>
       </c>
       <c r="S28" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3344142389604</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2794,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>377.2421849464789</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>250.8325666881256</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2888,7 +2888,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H30" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>153.0370636576713</v>
+        <v>138.3394548557092</v>
       </c>
       <c r="T31" t="n">
         <v>237.1310885301926</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.5379431124291</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>368.3668204821694</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>371.2598946240379</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H33" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,7 +3204,7 @@
         <v>163.7109207868414</v>
       </c>
       <c r="H34" t="n">
-        <v>8.903780766241745</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I34" t="n">
         <v>72.20225288674683</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>91.02029225059769</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>408.7732583859051</v>
+        <v>293.7126561093264</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H36" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.14971972493707</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.34898870122257</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.0370636576713</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>96.79262295955309</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>315.1477295904207</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H39" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>66.96475132714744</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.0370636576713</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1310885301926</v>
+        <v>103.0055316330513</v>
       </c>
       <c r="U40" t="n">
         <v>277.3344142389604</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>84.27473616505048</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H41" t="n">
         <v>274.71888335875</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0945428230611</v>
+        <v>137.9267181921372</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H42" t="n">
-        <v>42.66474259349077</v>
+        <v>42.66474259349078</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3344142389604</v>
       </c>
       <c r="V43" t="n">
-        <v>52.60622074368607</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>19.23152734270639</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>24.088087620656</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3261064128874</v>
+        <v>102.1642061552728</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>164.449868214924</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1310885301926</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>215.8781814191341</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>561.5622309962051</v>
+        <v>1719.304742056652</v>
       </c>
       <c r="C11" t="n">
-        <v>561.5622309962051</v>
+        <v>1292.404012069952</v>
       </c>
       <c r="D11" t="n">
-        <v>138.2696101812054</v>
+        <v>869.111391254952</v>
       </c>
       <c r="E11" t="n">
-        <v>138.2696101812054</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="F11" t="n">
-        <v>138.2696101812054</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="G11" t="n">
-        <v>138.2696101812054</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H11" t="n">
         <v>42.3139218351261</v>
@@ -5041,13 +5041,13 @@
         <v>83.28385069007345</v>
       </c>
       <c r="J11" t="n">
-        <v>219.6508459321592</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K11" t="n">
-        <v>432.2746315182162</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0497753208668</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M11" t="n">
         <v>1007.372886491277</v>
@@ -5068,25 +5068,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S11" t="n">
-        <v>2056.663616770822</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T11" t="n">
-        <v>2056.663616770822</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="U11" t="n">
-        <v>1798.467864165098</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="V11" t="n">
-        <v>1798.467864165098</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="W11" t="n">
-        <v>1798.467864165098</v>
+        <v>1719.304742056652</v>
       </c>
       <c r="X11" t="n">
-        <v>1386.747865332845</v>
+        <v>1719.304742056652</v>
       </c>
       <c r="Y11" t="n">
-        <v>981.4105952877352</v>
+        <v>1719.304742056652</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I12" t="n">
-        <v>62.22294035382061</v>
+        <v>62.22294035382062</v>
       </c>
       <c r="J12" t="n">
-        <v>140.3842883820539</v>
+        <v>418.3790865822425</v>
       </c>
       <c r="K12" t="n">
-        <v>286.6746405364524</v>
+        <v>564.669438736641</v>
       </c>
       <c r="L12" t="n">
-        <v>490.907485296516</v>
+        <v>768.9022834967047</v>
       </c>
       <c r="M12" t="n">
-        <v>732.3830731685479</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N12" t="n">
-        <v>982.5912061173242</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O12" t="n">
         <v>1485.866847119341</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500.6131198678663</v>
+        <v>754.5420292159681</v>
       </c>
       <c r="C13" t="n">
-        <v>500.6131198678663</v>
+        <v>754.5420292159681</v>
       </c>
       <c r="D13" t="n">
-        <v>337.296346994637</v>
+        <v>754.5420292159681</v>
       </c>
       <c r="E13" t="n">
-        <v>171.0881411474905</v>
+        <v>588.3338233688216</v>
       </c>
       <c r="F13" t="n">
-        <v>171.0881411474905</v>
+        <v>416.472049143382</v>
       </c>
       <c r="G13" t="n">
-        <v>171.0881411474905</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H13" t="n">
         <v>115.2454904075976</v>
@@ -5199,22 +5199,22 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J13" t="n">
-        <v>83.72089458732201</v>
+        <v>150.2483102344369</v>
       </c>
       <c r="K13" t="n">
-        <v>164.5836667784797</v>
+        <v>231.1110824255945</v>
       </c>
       <c r="L13" t="n">
-        <v>272.9198672317079</v>
+        <v>715.8361764699878</v>
       </c>
       <c r="M13" t="n">
-        <v>528.6818317644854</v>
+        <v>1239.470959179673</v>
       </c>
       <c r="N13" t="n">
-        <v>1040.01779431597</v>
+        <v>1352.773998889277</v>
       </c>
       <c r="O13" t="n">
-        <v>1519.07293747027</v>
+        <v>1831.829142043577</v>
       </c>
       <c r="P13" t="n">
         <v>1915.456417501846</v>
@@ -5223,28 +5223,28 @@
         <v>2115.696091756305</v>
       </c>
       <c r="R13" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S13" t="n">
-        <v>1954.200281281117</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T13" t="n">
-        <v>1714.673929230418</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.538157271872</v>
+        <v>1680.977427214252</v>
       </c>
       <c r="V13" t="n">
-        <v>1434.538157271872</v>
+        <v>1399.265959822281</v>
       </c>
       <c r="W13" t="n">
-        <v>1159.685753444385</v>
+        <v>1124.413555994794</v>
       </c>
       <c r="X13" t="n">
-        <v>917.1218568901899</v>
+        <v>881.8496594405993</v>
       </c>
       <c r="Y13" t="n">
-        <v>690.7790885799319</v>
+        <v>881.8496594405993</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>754.682791119031</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="C14" t="n">
-        <v>754.682791119031</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="D14" t="n">
-        <v>754.682791119031</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="E14" t="n">
-        <v>328.7058512668885</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="F14" t="n">
-        <v>328.7058512668885</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="G14" t="n">
         <v>42.3139218351261</v>
@@ -5278,16 +5278,16 @@
         <v>83.28385069007345</v>
       </c>
       <c r="J14" t="n">
-        <v>219.6508459321585</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K14" t="n">
-        <v>432.2746315182157</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L14" t="n">
         <v>702.0497753208665</v>
       </c>
       <c r="M14" t="n">
-        <v>1007.372886491276</v>
+        <v>1007.372886491277</v>
       </c>
       <c r="N14" t="n">
         <v>1318.386188667469</v>
@@ -5311,19 +5311,19 @@
         <v>1844.446906848538</v>
       </c>
       <c r="U14" t="n">
-        <v>1586.251154242814</v>
+        <v>1623.668470656389</v>
       </c>
       <c r="V14" t="n">
-        <v>1586.251154242814</v>
+        <v>1266.179055782639</v>
       </c>
       <c r="W14" t="n">
-        <v>1586.251154242814</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="X14" t="n">
-        <v>1174.531155410561</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="Y14" t="n">
-        <v>1174.531155410561</v>
+        <v>869.7877060829859</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G15" t="n">
-        <v>85.40962142451072</v>
+        <v>85.40962142451073</v>
       </c>
       <c r="H15" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I15" t="n">
-        <v>85.68024619823245</v>
+        <v>62.22294035382062</v>
       </c>
       <c r="J15" t="n">
-        <v>163.8415942264658</v>
+        <v>418.3790865822425</v>
       </c>
       <c r="K15" t="n">
-        <v>310.1319463808643</v>
+        <v>564.669438736641</v>
       </c>
       <c r="L15" t="n">
-        <v>514.364791140928</v>
+        <v>768.9022834967047</v>
       </c>
       <c r="M15" t="n">
-        <v>755.8403790129598</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N15" t="n">
-        <v>1006.048511961736</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.411346834435</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P15" t="n">
-        <v>1558.077461028305</v>
+        <v>1663.532961313211</v>
       </c>
       <c r="Q15" t="n">
-        <v>1668.730683886594</v>
+        <v>1774.1861841715</v>
       </c>
       <c r="R15" t="n">
         <v>1815.524390138853</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.650513771467</v>
+        <v>507.5260377595473</v>
       </c>
       <c r="C16" t="n">
-        <v>391.677950650383</v>
+        <v>335.5534746384633</v>
       </c>
       <c r="D16" t="n">
-        <v>391.677950650383</v>
+        <v>172.236701765234</v>
       </c>
       <c r="E16" t="n">
-        <v>391.677950650383</v>
+        <v>172.236701765234</v>
       </c>
       <c r="F16" t="n">
-        <v>343.5404805709104</v>
+        <v>172.236701765234</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1759141195554</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="H16" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I16" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="J16" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K16" t="n">
-        <v>489.7879925407226</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L16" t="n">
-        <v>598.1241929939508</v>
+        <v>469.1767510060065</v>
       </c>
       <c r="M16" t="n">
-        <v>1121.758975703636</v>
+        <v>992.8115337156919</v>
       </c>
       <c r="N16" t="n">
-        <v>1235.06201541324</v>
+        <v>1504.147496267176</v>
       </c>
       <c r="O16" t="n">
-        <v>1670.446434848169</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P16" t="n">
         <v>2066.829914879745</v>
@@ -5460,28 +5460,28 @@
         <v>2115.696091756305</v>
       </c>
       <c r="R16" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S16" t="n">
-        <v>2108.783173864624</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.256821813924</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U16" t="n">
-        <v>1589.121049855378</v>
+        <v>1441.451075163553</v>
       </c>
       <c r="V16" t="n">
-        <v>1307.409582463407</v>
+        <v>1441.451075163553</v>
       </c>
       <c r="W16" t="n">
-        <v>1032.55717863592</v>
+        <v>1166.598671336066</v>
       </c>
       <c r="X16" t="n">
-        <v>789.9932820817249</v>
+        <v>924.0347747818709</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.650513771467</v>
+        <v>697.6920064716129</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1239.606347893461</v>
+        <v>1228.761739369063</v>
       </c>
       <c r="C17" t="n">
-        <v>1239.606347893461</v>
+        <v>1228.761739369063</v>
       </c>
       <c r="D17" t="n">
-        <v>1239.606347893461</v>
+        <v>1228.761739369063</v>
       </c>
       <c r="E17" t="n">
-        <v>813.6294080413182</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="F17" t="n">
-        <v>444.6635242723861</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G17" t="n">
-        <v>42.31392183512611</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H17" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I17" t="n">
-        <v>83.28385069007356</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J17" t="n">
-        <v>219.6508459321592</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K17" t="n">
-        <v>432.2746315182163</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L17" t="n">
-        <v>702.049775320867</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M17" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491276</v>
       </c>
       <c r="N17" t="n">
         <v>1318.386188667469</v>
@@ -5533,34 +5533,34 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P17" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q17" t="n">
-        <v>2027.894911364331</v>
+        <v>2027.89491136433</v>
       </c>
       <c r="R17" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S17" t="n">
-        <v>2056.663616770823</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T17" t="n">
-        <v>2056.663616770823</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="U17" t="n">
-        <v>2056.663616770823</v>
+        <v>1586.251154242814</v>
       </c>
       <c r="V17" t="n">
-        <v>2056.663616770823</v>
+        <v>1228.761739369063</v>
       </c>
       <c r="W17" t="n">
-        <v>2056.663616770823</v>
+        <v>1228.761739369063</v>
       </c>
       <c r="X17" t="n">
-        <v>1644.94361793857</v>
+        <v>1228.761739369063</v>
       </c>
       <c r="Y17" t="n">
-        <v>1239.606347893461</v>
+        <v>1228.761739369063</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>85.40962142451073</v>
       </c>
       <c r="H18" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I18" t="n">
-        <v>85.68024619823248</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J18" t="n">
-        <v>163.8415942264658</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K18" t="n">
-        <v>564.669438736641</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L18" t="n">
-        <v>768.9022834967047</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M18" t="n">
-        <v>1010.377871368737</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N18" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O18" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P18" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.524390138853</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>648.5939732386613</v>
+        <v>415.9805390796417</v>
       </c>
       <c r="C19" t="n">
-        <v>476.6214101175773</v>
+        <v>415.9805390796417</v>
       </c>
       <c r="D19" t="n">
-        <v>476.6214101175773</v>
+        <v>415.9805390796417</v>
       </c>
       <c r="E19" t="n">
-        <v>476.6214101175773</v>
+        <v>415.9805390796417</v>
       </c>
       <c r="F19" t="n">
-        <v>304.7596358921377</v>
+        <v>415.9805390796417</v>
       </c>
       <c r="G19" t="n">
-        <v>139.3950694407827</v>
+        <v>250.6159726282868</v>
       </c>
       <c r="H19" t="n">
-        <v>115.2454904075977</v>
+        <v>114.7539803438574</v>
       </c>
       <c r="I19" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="J19" t="n">
-        <v>83.72089458732204</v>
+        <v>161.6426112355429</v>
       </c>
       <c r="K19" t="n">
-        <v>164.5836667784797</v>
+        <v>489.7879925407226</v>
       </c>
       <c r="L19" t="n">
-        <v>649.308760822873</v>
+        <v>878.0567292041186</v>
       </c>
       <c r="M19" t="n">
-        <v>764.0635653344463</v>
+        <v>992.8115337156919</v>
       </c>
       <c r="N19" t="n">
-        <v>1275.399527885931</v>
+        <v>1504.147496267176</v>
       </c>
       <c r="O19" t="n">
-        <v>1519.072937470271</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P19" t="n">
-        <v>1915.456417501847</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q19" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="R19" t="n">
-        <v>2108.783173864625</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S19" t="n">
-        <v>1954.200281281118</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T19" t="n">
-        <v>1954.200281281118</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.064509322572</v>
+        <v>1441.451075163553</v>
       </c>
       <c r="V19" t="n">
-        <v>1392.353041930601</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="W19" t="n">
-        <v>1117.500638103114</v>
+        <v>884.8872039440946</v>
       </c>
       <c r="X19" t="n">
-        <v>874.9367415489193</v>
+        <v>642.3233073898997</v>
       </c>
       <c r="Y19" t="n">
-        <v>648.5939732386613</v>
+        <v>415.9805390796417</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1294.856875074086</v>
+        <v>1284.127728632522</v>
       </c>
       <c r="C20" t="n">
-        <v>867.9561450873858</v>
+        <v>1284.127728632522</v>
       </c>
       <c r="D20" t="n">
-        <v>444.6635242723861</v>
+        <v>860.8351078175222</v>
       </c>
       <c r="E20" t="n">
-        <v>444.6635242723861</v>
+        <v>860.8351078175222</v>
       </c>
       <c r="F20" t="n">
-        <v>444.6635242723861</v>
+        <v>435.7109260069224</v>
       </c>
       <c r="G20" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H20" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I20" t="n">
-        <v>83.28385069007356</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J20" t="n">
-        <v>219.6508459321592</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K20" t="n">
-        <v>432.2746315182163</v>
+        <v>432.274631518216</v>
       </c>
       <c r="L20" t="n">
-        <v>702.049775320867</v>
+        <v>702.0497753208666</v>
       </c>
       <c r="M20" t="n">
         <v>1007.372886491277</v>
@@ -5770,34 +5770,34 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P20" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q20" t="n">
-        <v>2027.894911364331</v>
+        <v>2027.89491136433</v>
       </c>
       <c r="R20" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S20" t="n">
-        <v>2056.663616770823</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T20" t="n">
-        <v>1844.446906848539</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="U20" t="n">
-        <v>1586.251154242815</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="V20" t="n">
-        <v>1586.251154242815</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="W20" t="n">
-        <v>1294.856875074086</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="X20" t="n">
-        <v>1294.856875074086</v>
+        <v>1703.976092924052</v>
       </c>
       <c r="Y20" t="n">
-        <v>1294.856875074086</v>
+        <v>1703.976092924052</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>85.40962142451073</v>
       </c>
       <c r="H21" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I21" t="n">
-        <v>62.22294035382063</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J21" t="n">
-        <v>140.3842883820539</v>
+        <v>163.8415942264657</v>
       </c>
       <c r="K21" t="n">
-        <v>286.6746405364524</v>
+        <v>310.1319463808642</v>
       </c>
       <c r="L21" t="n">
-        <v>768.9022834967047</v>
+        <v>514.3647911409278</v>
       </c>
       <c r="M21" t="n">
-        <v>1010.377871368737</v>
+        <v>755.8403790129596</v>
       </c>
       <c r="N21" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032608</v>
       </c>
       <c r="O21" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.524390138853</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>409.0676211879617</v>
+        <v>689.2033931465068</v>
       </c>
       <c r="C22" t="n">
-        <v>380.3839019077121</v>
+        <v>689.2033931465068</v>
       </c>
       <c r="D22" t="n">
-        <v>380.3839019077121</v>
+        <v>689.2033931465068</v>
       </c>
       <c r="E22" t="n">
-        <v>214.1756960605657</v>
+        <v>522.9951872993603</v>
       </c>
       <c r="F22" t="n">
-        <v>42.31392183512611</v>
+        <v>351.1334130739207</v>
       </c>
       <c r="G22" t="n">
-        <v>42.31392183512611</v>
+        <v>185.7688466225657</v>
       </c>
       <c r="H22" t="n">
-        <v>42.31392183512611</v>
+        <v>49.90685433813633</v>
       </c>
       <c r="I22" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="J22" t="n">
         <v>161.6426112355429</v>
       </c>
       <c r="K22" t="n">
-        <v>489.7879925407227</v>
+        <v>489.7879925407225</v>
       </c>
       <c r="L22" t="n">
-        <v>598.1241929939509</v>
+        <v>974.5130865851157</v>
       </c>
       <c r="M22" t="n">
-        <v>712.8789975055242</v>
+        <v>1089.267891096689</v>
       </c>
       <c r="N22" t="n">
-        <v>1040.017794315971</v>
+        <v>1202.570930806293</v>
       </c>
       <c r="O22" t="n">
-        <v>1519.072937470271</v>
+        <v>1519.07293747027</v>
       </c>
       <c r="P22" t="n">
-        <v>1915.456417501847</v>
+        <v>1915.456417501846</v>
       </c>
       <c r="Q22" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="R22" t="n">
-        <v>2108.783173864625</v>
+        <v>2108.783173864624</v>
       </c>
       <c r="S22" t="n">
-        <v>1954.200281281118</v>
+        <v>1954.200281281117</v>
       </c>
       <c r="T22" t="n">
-        <v>1714.673929230419</v>
+        <v>1714.673929230418</v>
       </c>
       <c r="U22" t="n">
-        <v>1434.538157271873</v>
+        <v>1714.673929230418</v>
       </c>
       <c r="V22" t="n">
-        <v>1152.826689879902</v>
+        <v>1432.962461838447</v>
       </c>
       <c r="W22" t="n">
-        <v>877.9742860524145</v>
+        <v>1158.11005801096</v>
       </c>
       <c r="X22" t="n">
-        <v>635.4103894982196</v>
+        <v>915.5461614567647</v>
       </c>
       <c r="Y22" t="n">
-        <v>409.0676211879617</v>
+        <v>689.2033931465068</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1293.080326897986</v>
+        <v>1997.47487845918</v>
       </c>
       <c r="C23" t="n">
-        <v>1293.080326897986</v>
+        <v>1570.574148472481</v>
       </c>
       <c r="D23" t="n">
-        <v>869.7877060829859</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="E23" t="n">
-        <v>869.7877060829859</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="F23" t="n">
-        <v>444.6635242723861</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G23" t="n">
-        <v>42.3139218351261</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H23" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I23" t="n">
-        <v>83.28385069007345</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J23" t="n">
-        <v>219.6508459321591</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K23" t="n">
-        <v>432.2746315182162</v>
+        <v>432.274631518216</v>
       </c>
       <c r="L23" t="n">
-        <v>702.0497753208668</v>
+        <v>702.0497753208667</v>
       </c>
       <c r="M23" t="n">
         <v>1007.372886491276</v>
@@ -6016,25 +6016,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S23" t="n">
-        <v>2056.663616770822</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T23" t="n">
-        <v>2056.663616770822</v>
+        <v>1997.47487845918</v>
       </c>
       <c r="U23" t="n">
-        <v>1798.467864165098</v>
+        <v>1997.47487845918</v>
       </c>
       <c r="V23" t="n">
-        <v>1798.467864165098</v>
+        <v>1997.47487845918</v>
       </c>
       <c r="W23" t="n">
-        <v>1712.928691189516</v>
+        <v>1997.47487845918</v>
       </c>
       <c r="X23" t="n">
-        <v>1712.928691189516</v>
+        <v>1997.47487845918</v>
       </c>
       <c r="Y23" t="n">
-        <v>1712.928691189516</v>
+        <v>1997.47487845918</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G24" t="n">
-        <v>85.40962142451072</v>
+        <v>85.40962142451073</v>
       </c>
       <c r="H24" t="n">
         <v>42.3139218351261</v>
@@ -6068,28 +6068,28 @@
         <v>62.22294035382062</v>
       </c>
       <c r="J24" t="n">
-        <v>140.3842883820539</v>
+        <v>418.3790865822425</v>
       </c>
       <c r="K24" t="n">
-        <v>286.6746405364524</v>
+        <v>564.669438736641</v>
       </c>
       <c r="L24" t="n">
-        <v>490.9074852965161</v>
+        <v>768.9022834967047</v>
       </c>
       <c r="M24" t="n">
-        <v>732.383073168548</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N24" t="n">
-        <v>1256.017855878233</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O24" t="n">
-        <v>1481.298698680061</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P24" t="n">
-        <v>1658.964812873932</v>
+        <v>1663.532961313211</v>
       </c>
       <c r="Q24" t="n">
-        <v>1769.618035732221</v>
+        <v>1774.1861841715</v>
       </c>
       <c r="R24" t="n">
         <v>1815.524390138853</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>458.4280045265947</v>
+        <v>218.9016524758951</v>
       </c>
       <c r="C25" t="n">
-        <v>286.4554414055108</v>
+        <v>46.92908935481111</v>
       </c>
       <c r="D25" t="n">
-        <v>286.4554414055108</v>
+        <v>46.92908935481111</v>
       </c>
       <c r="E25" t="n">
-        <v>286.4554414055108</v>
+        <v>46.92908935481111</v>
       </c>
       <c r="F25" t="n">
-        <v>286.4554414055108</v>
+        <v>46.92908935481111</v>
       </c>
       <c r="G25" t="n">
-        <v>178.1759141195554</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H25" t="n">
         <v>42.3139218351261</v>
@@ -6147,19 +6147,19 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J25" t="n">
-        <v>83.72089458732202</v>
+        <v>161.6426112355429</v>
       </c>
       <c r="K25" t="n">
-        <v>306.904257511722</v>
+        <v>489.7879925407226</v>
       </c>
       <c r="L25" t="n">
-        <v>791.6293515561152</v>
+        <v>974.5130865851158</v>
       </c>
       <c r="M25" t="n">
-        <v>906.3841560676885</v>
+        <v>1089.267891096689</v>
       </c>
       <c r="N25" t="n">
-        <v>1417.720118619173</v>
+        <v>1202.570930806293</v>
       </c>
       <c r="O25" t="n">
         <v>1519.07293747027</v>
@@ -6177,22 +6177,22 @@
         <v>1954.200281281117</v>
       </c>
       <c r="T25" t="n">
-        <v>1954.200281281117</v>
+        <v>1714.673929230418</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.064509322571</v>
+        <v>1434.538157271872</v>
       </c>
       <c r="V25" t="n">
-        <v>1392.3530419306</v>
+        <v>1152.826689879901</v>
       </c>
       <c r="W25" t="n">
-        <v>1117.500638103113</v>
+        <v>877.9742860524136</v>
       </c>
       <c r="X25" t="n">
-        <v>874.9367415489183</v>
+        <v>635.4103894982187</v>
       </c>
       <c r="Y25" t="n">
-        <v>648.5939732386604</v>
+        <v>409.0676211879608</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>769.1938853654514</v>
+        <v>1316.707664312868</v>
       </c>
       <c r="C26" t="n">
-        <v>769.1938853654514</v>
+        <v>1316.707664312868</v>
       </c>
       <c r="D26" t="n">
-        <v>345.9012645504516</v>
+        <v>893.4150434978683</v>
       </c>
       <c r="E26" t="n">
-        <v>345.9012645504516</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="F26" t="n">
         <v>42.3139218351261</v>
@@ -6229,10 +6229,10 @@
         <v>219.650845932159</v>
       </c>
       <c r="K26" t="n">
-        <v>432.2746315182161</v>
+        <v>432.274631518216</v>
       </c>
       <c r="L26" t="n">
-        <v>702.0497753208668</v>
+        <v>702.0497753208667</v>
       </c>
       <c r="M26" t="n">
         <v>1007.372886491277</v>
@@ -6259,19 +6259,19 @@
         <v>1844.446906848538</v>
       </c>
       <c r="U26" t="n">
-        <v>1586.251154242814</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="V26" t="n">
-        <v>1586.251154242814</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="W26" t="n">
-        <v>1586.251154242814</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="X26" t="n">
-        <v>1174.531155410561</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="Y26" t="n">
-        <v>769.1938853654514</v>
+        <v>1439.109636803429</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G27" t="n">
-        <v>85.40962142451072</v>
+        <v>85.40962142451073</v>
       </c>
       <c r="H27" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I27" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J27" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K27" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L27" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M27" t="n">
-        <v>1010.377871368737</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N27" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O27" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P27" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R27" t="n">
         <v>1815.524390138853</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.0654592912862</v>
+        <v>613.010897110101</v>
       </c>
       <c r="C28" t="n">
-        <v>673.0654592912862</v>
+        <v>441.038333989017</v>
       </c>
       <c r="D28" t="n">
-        <v>509.7486864180569</v>
+        <v>277.7215611157877</v>
       </c>
       <c r="E28" t="n">
-        <v>343.5404805709104</v>
+        <v>277.7215611157877</v>
       </c>
       <c r="F28" t="n">
-        <v>343.5404805709104</v>
+        <v>105.8597868903481</v>
       </c>
       <c r="G28" t="n">
-        <v>178.1759141195554</v>
+        <v>105.8597868903481</v>
       </c>
       <c r="H28" t="n">
-        <v>42.3139218351261</v>
+        <v>105.8597868903481</v>
       </c>
       <c r="I28" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="J28" t="n">
-        <v>83.72089458732202</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K28" t="n">
-        <v>296.0572021554901</v>
+        <v>209.4670531748793</v>
       </c>
       <c r="L28" t="n">
-        <v>780.7822961998834</v>
+        <v>317.8032536281075</v>
       </c>
       <c r="M28" t="n">
-        <v>1304.417078909569</v>
+        <v>841.4380363377929</v>
       </c>
       <c r="N28" t="n">
-        <v>1417.720118619173</v>
+        <v>1352.773998889277</v>
       </c>
       <c r="O28" t="n">
-        <v>1519.07293747027</v>
+        <v>1831.829142043577</v>
       </c>
       <c r="P28" t="n">
         <v>1915.456417501846</v>
@@ -6411,25 +6411,25 @@
         <v>2108.783173864624</v>
       </c>
       <c r="S28" t="n">
-        <v>1954.200281281117</v>
+        <v>2108.783173864624</v>
       </c>
       <c r="T28" t="n">
-        <v>1714.673929230418</v>
+        <v>2108.783173864624</v>
       </c>
       <c r="U28" t="n">
-        <v>1434.538157271872</v>
+        <v>1828.647401906078</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.538157271872</v>
+        <v>1546.935934514107</v>
       </c>
       <c r="W28" t="n">
-        <v>1159.685753444385</v>
+        <v>1272.083530686619</v>
       </c>
       <c r="X28" t="n">
-        <v>917.1218568901899</v>
+        <v>1029.519634132425</v>
       </c>
       <c r="Y28" t="n">
-        <v>690.7790885799319</v>
+        <v>803.1768658221667</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.4381036457259</v>
+        <v>423.3666339022765</v>
       </c>
       <c r="C29" t="n">
-        <v>467.4381036457259</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="D29" t="n">
-        <v>467.4381036457259</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="E29" t="n">
-        <v>467.4381036457259</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="F29" t="n">
         <v>42.3139218351261</v>
@@ -6460,16 +6460,16 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I29" t="n">
-        <v>83.28385069007342</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J29" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K29" t="n">
-        <v>432.274631518216</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M29" t="n">
         <v>1007.372886491276</v>
@@ -6478,7 +6478,7 @@
         <v>1318.386188667469</v>
       </c>
       <c r="O29" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.90025066081</v>
       </c>
       <c r="P29" t="n">
         <v>1853.09434551636</v>
@@ -6490,25 +6490,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S29" t="n">
-        <v>2115.696091756305</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T29" t="n">
-        <v>1903.479381834021</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="U29" t="n">
-        <v>1903.479381834021</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="V29" t="n">
-        <v>1545.98996696027</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="W29" t="n">
-        <v>1545.98996696027</v>
+        <v>1660.272267071169</v>
       </c>
       <c r="X29" t="n">
-        <v>1292.623737982366</v>
+        <v>1248.552268238916</v>
       </c>
       <c r="Y29" t="n">
-        <v>887.286467937256</v>
+        <v>843.2149981938065</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G30" t="n">
-        <v>85.40962142451072</v>
+        <v>85.40962142451073</v>
       </c>
       <c r="H30" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I30" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J30" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K30" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L30" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M30" t="n">
-        <v>732.383073168548</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N30" t="n">
-        <v>982.5912061173244</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O30" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P30" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R30" t="n">
         <v>1815.524390138853</v>
@@ -6621,19 +6621,19 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J31" t="n">
-        <v>83.72089458732202</v>
+        <v>161.6426112355429</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5836667784797</v>
+        <v>489.7879925407226</v>
       </c>
       <c r="L31" t="n">
-        <v>649.308760822873</v>
+        <v>974.5130865851158</v>
       </c>
       <c r="M31" t="n">
-        <v>841.4380363377929</v>
+        <v>1219.140360640996</v>
       </c>
       <c r="N31" t="n">
-        <v>1352.773998889277</v>
+        <v>1730.476323192481</v>
       </c>
       <c r="O31" t="n">
         <v>1831.829142043577</v>
@@ -6645,25 +6645,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="R31" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S31" t="n">
-        <v>1954.200281281117</v>
+        <v>1975.95926866973</v>
       </c>
       <c r="T31" t="n">
-        <v>1714.673929230418</v>
+        <v>1736.43291661903</v>
       </c>
       <c r="U31" t="n">
-        <v>1434.538157271872</v>
+        <v>1456.297144660484</v>
       </c>
       <c r="V31" t="n">
-        <v>1152.826689879901</v>
+        <v>1174.585677268513</v>
       </c>
       <c r="W31" t="n">
-        <v>1152.826689879901</v>
+        <v>1174.585677268513</v>
       </c>
       <c r="X31" t="n">
-        <v>910.2627933257057</v>
+        <v>932.0217807143181</v>
       </c>
       <c r="Y31" t="n">
         <v>705.6790124040601</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>417.3239164048614</v>
+        <v>1743.608394299568</v>
       </c>
       <c r="C32" t="n">
-        <v>417.3239164048614</v>
+        <v>1316.707664312868</v>
       </c>
       <c r="D32" t="n">
-        <v>417.3239164048614</v>
+        <v>893.4150434978683</v>
       </c>
       <c r="E32" t="n">
-        <v>42.31392183512611</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="F32" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G32" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H32" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I32" t="n">
-        <v>83.28385069007356</v>
+        <v>83.28385069007339</v>
       </c>
       <c r="J32" t="n">
-        <v>219.6508459321592</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K32" t="n">
-        <v>432.2746315182163</v>
+        <v>432.274631518216</v>
       </c>
       <c r="L32" t="n">
-        <v>702.049775320867</v>
+        <v>702.0497753208667</v>
       </c>
       <c r="M32" t="n">
         <v>1007.372886491277</v>
@@ -6718,34 +6718,34 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P32" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q32" t="n">
-        <v>2027.894911364331</v>
+        <v>2027.89491136433</v>
       </c>
       <c r="R32" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S32" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T32" t="n">
-        <v>1903.479381834022</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="U32" t="n">
-        <v>1645.283629228297</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="V32" t="n">
-        <v>1645.283629228297</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="W32" t="n">
-        <v>1248.892279528644</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="X32" t="n">
-        <v>837.1722806963915</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="Y32" t="n">
-        <v>837.1722806963915</v>
+        <v>2115.696091756305</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>85.40962142451073</v>
       </c>
       <c r="H33" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I33" t="n">
-        <v>62.22294035382063</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J33" t="n">
-        <v>140.3842883820539</v>
+        <v>163.8415942264657</v>
       </c>
       <c r="K33" t="n">
-        <v>286.6746405364524</v>
+        <v>310.1319463808642</v>
       </c>
       <c r="L33" t="n">
-        <v>490.9074852965161</v>
+        <v>514.3647911409279</v>
       </c>
       <c r="M33" t="n">
-        <v>732.383073168548</v>
+        <v>755.8403790129597</v>
       </c>
       <c r="N33" t="n">
-        <v>982.5912061173244</v>
+        <v>1006.048511961736</v>
       </c>
       <c r="O33" t="n">
-        <v>1485.866847119341</v>
+        <v>1231.329354763564</v>
       </c>
       <c r="P33" t="n">
-        <v>1663.532961313211</v>
+        <v>1408.995468957434</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R33" t="n">
         <v>1815.524390138853</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>461.4655490300909</v>
+        <v>1089.831365210281</v>
       </c>
       <c r="C34" t="n">
-        <v>461.4655490300909</v>
+        <v>917.8588020891974</v>
       </c>
       <c r="D34" t="n">
-        <v>461.4655490300909</v>
+        <v>754.5420292159681</v>
       </c>
       <c r="E34" t="n">
-        <v>461.4655490300909</v>
+        <v>588.3338233688216</v>
       </c>
       <c r="F34" t="n">
-        <v>289.6037748046514</v>
+        <v>416.472049143382</v>
       </c>
       <c r="G34" t="n">
-        <v>124.2392083532964</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H34" t="n">
-        <v>115.2454904075977</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I34" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="J34" t="n">
-        <v>83.72089458732204</v>
+        <v>161.6426112355429</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5836667784797</v>
+        <v>489.7879925407226</v>
       </c>
       <c r="L34" t="n">
-        <v>403.0799718966809</v>
+        <v>974.5130865851158</v>
       </c>
       <c r="M34" t="n">
-        <v>926.7147546063666</v>
+        <v>1089.267891096689</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.017794315971</v>
+        <v>1600.603853648174</v>
       </c>
       <c r="O34" t="n">
-        <v>1519.072937470271</v>
+        <v>1701.95667249927</v>
       </c>
       <c r="P34" t="n">
-        <v>1915.456417501847</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q34" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="R34" t="n">
-        <v>2108.783173864625</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S34" t="n">
-        <v>1954.200281281118</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T34" t="n">
-        <v>1714.673929230419</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="U34" t="n">
-        <v>1434.538157271873</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="V34" t="n">
-        <v>1152.826689879902</v>
+        <v>2023.756402614287</v>
       </c>
       <c r="W34" t="n">
-        <v>877.9742860524145</v>
+        <v>1748.9039987868</v>
       </c>
       <c r="X34" t="n">
-        <v>877.9742860524145</v>
+        <v>1506.340102232605</v>
       </c>
       <c r="Y34" t="n">
-        <v>651.6315177421566</v>
+        <v>1279.997333922347</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>882.11693301971</v>
+        <v>616.4871940251023</v>
       </c>
       <c r="C35" t="n">
-        <v>455.2162030330101</v>
+        <v>616.4871940251023</v>
       </c>
       <c r="D35" t="n">
-        <v>455.2162030330101</v>
+        <v>616.4871940251023</v>
       </c>
       <c r="E35" t="n">
-        <v>42.31392183512611</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="F35" t="n">
-        <v>42.31392183512611</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="G35" t="n">
-        <v>42.31392183512611</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H35" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I35" t="n">
-        <v>83.28385069007322</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J35" t="n">
         <v>219.6508459321587</v>
       </c>
       <c r="K35" t="n">
-        <v>432.2746315182159</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M35" t="n">
         <v>1007.372886491277</v>
@@ -6955,34 +6955,34 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P35" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q35" t="n">
-        <v>2027.894911364331</v>
+        <v>2027.89491136433</v>
       </c>
       <c r="R35" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S35" t="n">
-        <v>2056.663616770823</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T35" t="n">
-        <v>2056.663616770823</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="U35" t="n">
-        <v>2056.663616770823</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="V35" t="n">
-        <v>1699.174201897072</v>
+        <v>1844.446906848538</v>
       </c>
       <c r="W35" t="n">
-        <v>1699.174201897072</v>
+        <v>1448.055557148885</v>
       </c>
       <c r="X35" t="n">
-        <v>1287.45420306482</v>
+        <v>1036.335558316632</v>
       </c>
       <c r="Y35" t="n">
-        <v>882.11693301971</v>
+        <v>1036.335558316632</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>85.40962142451073</v>
       </c>
       <c r="H36" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I36" t="n">
-        <v>85.68024619823248</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J36" t="n">
-        <v>163.8415942264658</v>
+        <v>163.8415942264657</v>
       </c>
       <c r="K36" t="n">
-        <v>310.1319463808643</v>
+        <v>310.1319463808642</v>
       </c>
       <c r="L36" t="n">
-        <v>514.364791140928</v>
+        <v>514.3647911409279</v>
       </c>
       <c r="M36" t="n">
-        <v>755.8403790129598</v>
+        <v>755.8403790129597</v>
       </c>
       <c r="N36" t="n">
-        <v>1260.586004317513</v>
+        <v>1006.048511961736</v>
       </c>
       <c r="O36" t="n">
-        <v>1485.866847119341</v>
+        <v>1231.329354763564</v>
       </c>
       <c r="P36" t="n">
-        <v>1663.532961313211</v>
+        <v>1408.995468957434</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.524390138853</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377.6032578294394</v>
+        <v>452.157338677834</v>
       </c>
       <c r="C37" t="n">
-        <v>205.6306947083554</v>
+        <v>280.1847755567501</v>
       </c>
       <c r="D37" t="n">
-        <v>42.31392183512611</v>
+        <v>280.1847755567501</v>
       </c>
       <c r="E37" t="n">
-        <v>42.31392183512611</v>
+        <v>280.1847755567501</v>
       </c>
       <c r="F37" t="n">
-        <v>42.31392183512611</v>
+        <v>108.3230013313105</v>
       </c>
       <c r="G37" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H37" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I37" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="J37" t="n">
-        <v>83.72089458732204</v>
+        <v>161.6426112355429</v>
       </c>
       <c r="K37" t="n">
-        <v>164.5836667784797</v>
+        <v>489.7879925407226</v>
       </c>
       <c r="L37" t="n">
-        <v>272.919867231708</v>
+        <v>974.5130865851158</v>
       </c>
       <c r="M37" t="n">
-        <v>680.0553291423853</v>
+        <v>1370.513858018895</v>
       </c>
       <c r="N37" t="n">
-        <v>1191.39129169387</v>
+        <v>1881.84982057038</v>
       </c>
       <c r="O37" t="n">
-        <v>1670.446434848169</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P37" t="n">
-        <v>2066.829914879746</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q37" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="R37" t="n">
-        <v>2108.783173864625</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S37" t="n">
-        <v>1954.200281281118</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T37" t="n">
-        <v>1714.673929230419</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U37" t="n">
-        <v>1434.538157271873</v>
+        <v>1441.451075163553</v>
       </c>
       <c r="V37" t="n">
-        <v>1152.826689879902</v>
+        <v>1159.739607771582</v>
       </c>
       <c r="W37" t="n">
-        <v>877.9742860524145</v>
+        <v>884.8872039440946</v>
       </c>
       <c r="X37" t="n">
-        <v>635.4103894982196</v>
+        <v>642.3233073898997</v>
       </c>
       <c r="Y37" t="n">
-        <v>409.0676211879617</v>
+        <v>642.3233073898997</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>745.7846832617636</v>
+        <v>1318.484212488968</v>
       </c>
       <c r="C38" t="n">
-        <v>745.7846832617636</v>
+        <v>891.5834825022682</v>
       </c>
       <c r="D38" t="n">
-        <v>745.7846832617636</v>
+        <v>468.2908616872685</v>
       </c>
       <c r="E38" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="F38" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G38" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H38" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I38" t="n">
-        <v>83.2838506900739</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J38" t="n">
-        <v>219.6508459321597</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K38" t="n">
-        <v>432.2746315182167</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L38" t="n">
-        <v>702.0497753208675</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M38" t="n">
         <v>1007.372886491277</v>
       </c>
       <c r="N38" t="n">
-        <v>1318.38618866747</v>
+        <v>1318.386188667469</v>
       </c>
       <c r="O38" t="n">
         <v>1609.900250660811</v>
       </c>
       <c r="P38" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q38" t="n">
-        <v>2027.894911364331</v>
+        <v>2027.89491136433</v>
       </c>
       <c r="R38" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S38" t="n">
-        <v>2115.696091756306</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T38" t="n">
-        <v>1903.479381834022</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="U38" t="n">
-        <v>1645.283629228297</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="V38" t="n">
-        <v>1645.283629228297</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="W38" t="n">
-        <v>1248.892279528644</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="X38" t="n">
-        <v>1151.121953306873</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="Y38" t="n">
-        <v>745.7846832617636</v>
+        <v>1738.332576780498</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>85.40962142451073</v>
       </c>
       <c r="H39" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I39" t="n">
-        <v>62.22294035382063</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J39" t="n">
-        <v>140.3842883820539</v>
+        <v>163.8415942264657</v>
       </c>
       <c r="K39" t="n">
-        <v>286.6746405364524</v>
+        <v>310.1319463808642</v>
       </c>
       <c r="L39" t="n">
-        <v>490.9074852965161</v>
+        <v>514.3647911409279</v>
       </c>
       <c r="M39" t="n">
-        <v>732.383073168548</v>
+        <v>755.8403790129597</v>
       </c>
       <c r="N39" t="n">
-        <v>982.5912061173244</v>
+        <v>1006.048511961736</v>
       </c>
       <c r="O39" t="n">
-        <v>1207.872048919152</v>
+        <v>1231.329354763564</v>
       </c>
       <c r="P39" t="n">
-        <v>1663.532961313211</v>
+        <v>1408.995468957434</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.524390138853</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>445.244420786154</v>
+        <v>917.8588020891974</v>
       </c>
       <c r="C40" t="n">
-        <v>273.27185766507</v>
+        <v>917.8588020891974</v>
       </c>
       <c r="D40" t="n">
-        <v>109.9550847918407</v>
+        <v>754.5420292159681</v>
       </c>
       <c r="E40" t="n">
-        <v>109.9550847918407</v>
+        <v>588.3338233688216</v>
       </c>
       <c r="F40" t="n">
-        <v>42.31392183512611</v>
+        <v>416.472049143382</v>
       </c>
       <c r="G40" t="n">
-        <v>42.31392183512611</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H40" t="n">
-        <v>42.31392183512611</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I40" t="n">
-        <v>42.31392183512611</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="J40" t="n">
-        <v>83.72089458732204</v>
+        <v>161.6426112355429</v>
       </c>
       <c r="K40" t="n">
-        <v>164.5836667784797</v>
+        <v>489.7879925407226</v>
       </c>
       <c r="L40" t="n">
-        <v>272.919867231708</v>
+        <v>974.5130865851158</v>
       </c>
       <c r="M40" t="n">
-        <v>680.0553291423853</v>
+        <v>1498.147869294801</v>
       </c>
       <c r="N40" t="n">
-        <v>1191.39129169387</v>
+        <v>1611.450909004406</v>
       </c>
       <c r="O40" t="n">
-        <v>1670.446434848169</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P40" t="n">
-        <v>2066.829914879746</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q40" t="n">
-        <v>2115.696091756306</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="R40" t="n">
-        <v>2108.783173864625</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S40" t="n">
-        <v>1954.200281281118</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T40" t="n">
-        <v>1714.673929230419</v>
+        <v>1857.067207624262</v>
       </c>
       <c r="U40" t="n">
-        <v>1434.538157271873</v>
+        <v>1576.931435665716</v>
       </c>
       <c r="V40" t="n">
-        <v>1152.826689879902</v>
+        <v>1576.931435665716</v>
       </c>
       <c r="W40" t="n">
-        <v>877.9742860524145</v>
+        <v>1576.931435665716</v>
       </c>
       <c r="X40" t="n">
-        <v>635.4103894982196</v>
+        <v>1334.367539111521</v>
       </c>
       <c r="Y40" t="n">
-        <v>635.4103894982196</v>
+        <v>1108.024770801263</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>828.2263603509344</v>
+        <v>1148.134285699024</v>
       </c>
       <c r="C41" t="n">
-        <v>828.2263603509344</v>
+        <v>1148.134285699024</v>
       </c>
       <c r="D41" t="n">
-        <v>404.9337395359347</v>
+        <v>1148.134285699024</v>
       </c>
       <c r="E41" t="n">
-        <v>404.9337395359347</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="F41" t="n">
-        <v>319.8077434096211</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G41" t="n">
         <v>319.8077434096211</v>
@@ -7408,19 +7408,19 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I41" t="n">
-        <v>83.28385069007341</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J41" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K41" t="n">
-        <v>432.2746315182161</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L41" t="n">
-        <v>702.0497753208668</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M41" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491276</v>
       </c>
       <c r="N41" t="n">
         <v>1318.386188667469</v>
@@ -7429,7 +7429,7 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P41" t="n">
-        <v>1853.094345516361</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q41" t="n">
         <v>2027.89491136433</v>
@@ -7438,25 +7438,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S41" t="n">
-        <v>2115.696091756305</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T41" t="n">
-        <v>1903.479381834021</v>
+        <v>1917.343699405027</v>
       </c>
       <c r="U41" t="n">
-        <v>1645.283629228297</v>
+        <v>1917.343699405027</v>
       </c>
       <c r="V41" t="n">
-        <v>1645.283629228297</v>
+        <v>1559.854284531276</v>
       </c>
       <c r="W41" t="n">
-        <v>1645.283629228297</v>
+        <v>1559.854284531276</v>
       </c>
       <c r="X41" t="n">
-        <v>1233.563630396044</v>
+        <v>1148.134285699024</v>
       </c>
       <c r="Y41" t="n">
-        <v>828.2263603509344</v>
+        <v>1148.134285699024</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I42" t="n">
-        <v>62.22294035382063</v>
+        <v>62.22294035382062</v>
       </c>
       <c r="J42" t="n">
-        <v>140.3842883820539</v>
+        <v>418.3790865822425</v>
       </c>
       <c r="K42" t="n">
-        <v>286.6746405364524</v>
+        <v>564.669438736641</v>
       </c>
       <c r="L42" t="n">
-        <v>490.9074852965161</v>
+        <v>768.9022834967047</v>
       </c>
       <c r="M42" t="n">
-        <v>732.383073168548</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N42" t="n">
-        <v>982.5912061173244</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O42" t="n">
-        <v>1207.872048919152</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P42" t="n">
-        <v>1385.538163113023</v>
+        <v>1663.532961313211</v>
       </c>
       <c r="Q42" t="n">
         <v>1774.1861841715</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>851.5352301864548</v>
+        <v>953.969372925852</v>
       </c>
       <c r="C43" t="n">
-        <v>679.5626670653708</v>
+        <v>781.996809804768</v>
       </c>
       <c r="D43" t="n">
-        <v>516.2458941921415</v>
+        <v>618.6800369315387</v>
       </c>
       <c r="E43" t="n">
-        <v>350.037688344995</v>
+        <v>452.4718310843922</v>
       </c>
       <c r="F43" t="n">
-        <v>178.1759141195555</v>
+        <v>280.6100568589526</v>
       </c>
       <c r="G43" t="n">
-        <v>178.1759141195555</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="H43" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I43" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="J43" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K43" t="n">
-        <v>489.7879925407226</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L43" t="n">
-        <v>598.1241929939508</v>
+        <v>469.1767510060065</v>
       </c>
       <c r="M43" t="n">
-        <v>712.8789975055241</v>
+        <v>992.8115337156919</v>
       </c>
       <c r="N43" t="n">
-        <v>1224.214960057009</v>
+        <v>1504.147496267176</v>
       </c>
       <c r="O43" t="n">
-        <v>1519.07293747027</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P43" t="n">
-        <v>1915.456417501847</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q43" t="n">
         <v>2115.696091756305</v>
@@ -7596,25 +7596,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S43" t="n">
-        <v>2115.696091756305</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="T43" t="n">
-        <v>1876.169739705605</v>
+        <v>1961.113199172798</v>
       </c>
       <c r="U43" t="n">
-        <v>1596.033967747059</v>
+        <v>1680.977427214252</v>
       </c>
       <c r="V43" t="n">
-        <v>1542.896371036265</v>
+        <v>1680.977427214252</v>
       </c>
       <c r="W43" t="n">
-        <v>1268.043967208778</v>
+        <v>1406.125023386765</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.043967208778</v>
+        <v>1163.561126832571</v>
       </c>
       <c r="Y43" t="n">
-        <v>1041.70119889852</v>
+        <v>1144.135341637918</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>894.1191077200122</v>
+        <v>1699.174201897072</v>
       </c>
       <c r="C44" t="n">
-        <v>869.7877060829859</v>
+        <v>1272.273471910372</v>
       </c>
       <c r="D44" t="n">
-        <v>869.7877060829859</v>
+        <v>848.9808510953724</v>
       </c>
       <c r="E44" t="n">
-        <v>869.7877060829859</v>
+        <v>423.0039112432299</v>
       </c>
       <c r="F44" t="n">
-        <v>444.6635242723861</v>
+        <v>423.0039112432299</v>
       </c>
       <c r="G44" t="n">
-        <v>42.3139218351261</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H44" t="n">
         <v>42.3139218351261</v>
@@ -7675,25 +7675,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S44" t="n">
-        <v>2115.696091756305</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="T44" t="n">
-        <v>2115.696091756305</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="U44" t="n">
-        <v>2115.696091756305</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="V44" t="n">
-        <v>2115.696091756305</v>
+        <v>1699.174201897072</v>
       </c>
       <c r="W44" t="n">
-        <v>1719.304742056652</v>
+        <v>1699.174201897072</v>
       </c>
       <c r="X44" t="n">
-        <v>1719.304742056652</v>
+        <v>1699.174201897072</v>
       </c>
       <c r="Y44" t="n">
-        <v>1313.967472011542</v>
+        <v>1699.174201897072</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>898.2642659075653</v>
+        <v>598.092564290113</v>
       </c>
       <c r="C45" t="n">
-        <v>780.7583624250701</v>
+        <v>480.5866608076178</v>
       </c>
       <c r="D45" t="n">
-        <v>676.9184039403551</v>
+        <v>376.7467023229029</v>
       </c>
       <c r="E45" t="n">
-        <v>572.2164702132924</v>
+        <v>272.0447685958401</v>
       </c>
       <c r="F45" t="n">
-        <v>478.5706398961966</v>
+        <v>178.3989382787443</v>
       </c>
       <c r="G45" t="n">
-        <v>385.581323041963</v>
+        <v>85.40962142451073</v>
       </c>
       <c r="H45" t="n">
-        <v>342.4856234525784</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I45" t="n">
-        <v>362.3946419712729</v>
+        <v>85.68024619823247</v>
       </c>
       <c r="J45" t="n">
-        <v>440.5559899995062</v>
+        <v>163.8415942264658</v>
       </c>
       <c r="K45" t="n">
-        <v>586.8463421539047</v>
+        <v>310.1319463808643</v>
       </c>
       <c r="L45" t="n">
-        <v>791.0791869139684</v>
+        <v>514.364791140928</v>
       </c>
       <c r="M45" t="n">
-        <v>1032.554774786</v>
+        <v>755.8403790129598</v>
       </c>
       <c r="N45" t="n">
-        <v>1282.762907734777</v>
+        <v>1006.048511961736</v>
       </c>
       <c r="O45" t="n">
-        <v>1786.038548736793</v>
+        <v>1231.329354763564</v>
       </c>
       <c r="P45" t="n">
-        <v>1963.704662930663</v>
+        <v>1408.995468957434</v>
       </c>
       <c r="Q45" t="n">
-        <v>2074.357885788952</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R45" t="n">
-        <v>2115.696091756305</v>
+        <v>1815.524390138853</v>
       </c>
       <c r="S45" t="n">
-        <v>2054.143627741981</v>
+        <v>1753.971926124528</v>
       </c>
       <c r="T45" t="n">
-        <v>1916.554192386068</v>
+        <v>1616.382490768616</v>
       </c>
       <c r="U45" t="n">
-        <v>1731.856026235189</v>
+        <v>1431.684324617737</v>
       </c>
       <c r="V45" t="n">
-        <v>1526.882887374456</v>
+        <v>1226.711185757003</v>
       </c>
       <c r="W45" t="n">
-        <v>1330.361510207673</v>
+        <v>1030.189808590221</v>
       </c>
       <c r="X45" t="n">
-        <v>1166.884163974336</v>
+        <v>866.7124623568834</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.191275327628</v>
+        <v>727.0195737101758</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>745.9970278637578</v>
+        <v>380.3974629510828</v>
       </c>
       <c r="C46" t="n">
-        <v>745.9970278637578</v>
+        <v>208.4248998299988</v>
       </c>
       <c r="D46" t="n">
-        <v>582.6802549905285</v>
+        <v>208.4248998299988</v>
       </c>
       <c r="E46" t="n">
-        <v>416.472049143382</v>
+        <v>208.4248998299988</v>
       </c>
       <c r="F46" t="n">
-        <v>416.472049143382</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G46" t="n">
-        <v>251.107482692027</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H46" t="n">
-        <v>115.2454904075977</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I46" t="n">
         <v>42.3139218351261</v>
@@ -7809,49 +7809,49 @@
         <v>83.72089458732202</v>
       </c>
       <c r="K46" t="n">
-        <v>327.2348560503996</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L46" t="n">
-        <v>811.9599500947928</v>
+        <v>649.308760822873</v>
       </c>
       <c r="M46" t="n">
-        <v>926.7147546063661</v>
+        <v>764.0635653344463</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.01779431597</v>
+        <v>1275.399527885931</v>
       </c>
       <c r="O46" t="n">
-        <v>1519.07293747027</v>
+        <v>1754.45467104023</v>
       </c>
       <c r="P46" t="n">
-        <v>1915.456417501847</v>
+        <v>2066.829914879746</v>
       </c>
       <c r="Q46" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R46" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S46" t="n">
-        <v>1954.200281281118</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T46" t="n">
-        <v>1714.673929230418</v>
+        <v>1876.169739705605</v>
       </c>
       <c r="U46" t="n">
-        <v>1714.673929230418</v>
+        <v>1596.033967747059</v>
       </c>
       <c r="V46" t="n">
-        <v>1432.962461838447</v>
+        <v>1314.322500355088</v>
       </c>
       <c r="W46" t="n">
-        <v>1214.903692728211</v>
+        <v>1039.470096527601</v>
       </c>
       <c r="X46" t="n">
-        <v>972.3397961740158</v>
+        <v>796.9061999734064</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.9970278637578</v>
+        <v>570.5634316631484</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M2" t="n">
-        <v>10.50014909015128</v>
+        <v>10.50014909015127</v>
       </c>
       <c r="N2" t="n">
         <v>9.912735448118685</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13.34699725816537</v>
+        <v>13.34699725816536</v>
       </c>
       <c r="J3" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K3" t="n">
-        <v>9.147977155514766</v>
+        <v>9.147977155514765</v>
       </c>
       <c r="L3" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M3" t="n">
-        <v>2.30407338579462</v>
+        <v>2.304073385794617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P3" t="n">
-        <v>6.100547230880082</v>
+        <v>6.10054723088008</v>
       </c>
       <c r="Q3" t="n">
         <v>12.27186175772305</v>
@@ -8218,13 +8218,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K5" t="n">
-        <v>14.09296117214527</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L5" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M5" t="n">
-        <v>7.515868967310215</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N5" t="n">
         <v>6.880166552921242</v>
@@ -8236,7 +8236,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.72668497534604</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R5" t="n">
         <v>24.33067662398352</v>
@@ -8297,7 +8297,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K6" t="n">
-        <v>7.679584047590231</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L6" t="n">
         <v>2.722701059689193</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.483625009529547</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P6" t="n">
         <v>4.364096701700124</v>
@@ -8388,7 +8388,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O7" t="n">
-        <v>11.69730019489985</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P7" t="n">
         <v>13.13791998612571</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>280.802826464837</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>280.8028264648373</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>67.19940974456047</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>142.4314747688932</v>
+        <v>413.0100789879921</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>280.802826464837</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>150.5878707786573</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>198.2392765396955</v>
       </c>
       <c r="M16" t="n">
-        <v>413.010078987992</v>
+        <v>413.0100789879921</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>337.4056571553855</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K18" t="n">
-        <v>257.1085781371482</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>282.760137586028</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9336,13 +9336,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>143.7581724578216</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>280.802826464837</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>150.5878707786583</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>215.995714243275</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>217.3224119322019</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>280.802826464837</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>276.1885351120293</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.614291352807705</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>143.7581724578205</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,10 +9807,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>217.3224119322019</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>280.8028264648369</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>132.8015508858691</v>
+        <v>45.33675393575717</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>413.0100789879921</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>280.802826464837</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>78.15603131651179</v>
+        <v>131.1843126710173</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>280.802826464837</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>131.4748531969424</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>413.0100789879923</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>284.0868352749559</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>257.1085781371482</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>295.3339973728323</v>
+        <v>284.0868352749557</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>280.802826464837</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>295.3339973728323</v>
+        <v>413.0100789879921</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>273.1302137030041</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>280.802826464837</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>280.8028264648368</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>198.2392765396955</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>413.0100789879921</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>195.4597561233988</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>280.8028264648368</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>150.5878707786574</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>164.2941305776969</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>231.0585539204508</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.142297892192675</v>
+        <v>0.142297892192687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1253022837962369</v>
+        <v>0.125302283796259</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>1.513782140880835</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>179.7227518961315</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T11" t="n">
         <v>210.0945428230611</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>62.22975510256009</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>79.21914812909112</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23503,13 +23503,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>114.7980962754426</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>274.71888335875</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.04314324943988</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>122.4870611045073</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>107.2896215427814</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I16" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S16" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>341.0517608591545</v>
       </c>
       <c r="F17" t="n">
-        <v>55.59671506125096</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,16 +23901,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>110.5952891187319</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.4865949631028599</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.863072282809128</v>
       </c>
       <c r="H20" t="n">
         <v>274.71888335875</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.44215023562774</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>103.947099825615</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24129,7 +24129,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>141.8559554024261</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.20225288674683</v>
+        <v>64.6852497087667</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0945428230611</v>
+        <v>93.05554165890808</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>307.7436549568306</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24378,10 +24378,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>56.51418877374564</v>
+        <v>159.1419049423532</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I25" t="n">
         <v>72.20225288674683</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>294.4719278829597</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>120.3214707043215</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.3261064128874</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,7 +24508,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.7278160291857</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I28" t="n">
-        <v>72.20225288674683</v>
+        <v>9.291846482077005</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>45.389537740354</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24691,7 +24691,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.3261064128874</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U29" t="n">
         <v>255.6137950796671</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>156.7702321558046</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>14.69760880196205</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.54139751472624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>47.2830601664453</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>50.45727582958312</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3261064128874</v>
@@ -24970,19 +24970,19 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>125.5995915953433</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>187.8740604674537</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>12.94391206771587</v>
+        <v>128.0045143442946</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,7 +25171,7 @@
         <v>398.3261064128874</v>
       </c>
       <c r="H35" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.6137950796671</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>157.1145893000079</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7109207868414</v>
+        <v>98.36193208561886</v>
       </c>
       <c r="H37" t="n">
         <v>134.5033723615851</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>398.3261064128874</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>310.8101758843771</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>86.13616775423787</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>103.1784051560377</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>134.1255568971413</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>336.5982038274433</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>72.16782463092386</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I43" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>6.843788712764123</v>
       </c>
       <c r="S43" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>226.2881319743653</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>204.847813284449</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>398.5436350661769</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>296.1619002576146</v>
       </c>
       <c r="H44" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.0945428230611</v>
@@ -25924,16 +25924,16 @@
         <v>255.6137950796671</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>5.693288268261227</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>56.22569837007805</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361583.549285589</v>
+        <v>361583.5492855888</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361583.549285589</v>
+        <v>361583.5492855888</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361583.549285589</v>
+        <v>361583.5492855888</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>361583.5492855889</v>
+        <v>361583.5492855888</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>361583.5492855889</v>
+        <v>361583.5492855888</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>430328.0796187827</v>
       </c>
       <c r="D2" t="n">
-        <v>430328.7753885071</v>
+        <v>430328.7753885072</v>
       </c>
       <c r="E2" t="n">
-        <v>254169.5142132415</v>
+        <v>254169.5142132416</v>
       </c>
       <c r="F2" t="n">
         <v>254169.5142132416</v>
@@ -26334,28 +26334,28 @@
         <v>254169.5142132415</v>
       </c>
       <c r="I2" t="n">
-        <v>254169.5142132413</v>
+        <v>254169.5142132416</v>
       </c>
       <c r="J2" t="n">
-        <v>254169.5142132413</v>
+        <v>254169.5142132416</v>
       </c>
       <c r="K2" t="n">
-        <v>254169.5142132413</v>
+        <v>254169.5142132415</v>
       </c>
       <c r="L2" t="n">
-        <v>254169.5142132417</v>
+        <v>254169.5142132415</v>
       </c>
       <c r="M2" t="n">
-        <v>254169.5142132415</v>
+        <v>254169.5142132416</v>
       </c>
       <c r="N2" t="n">
-        <v>254169.5142132416</v>
+        <v>254169.5142132414</v>
       </c>
       <c r="O2" t="n">
-        <v>254169.5142132417</v>
+        <v>254169.5142132414</v>
       </c>
       <c r="P2" t="n">
-        <v>254169.5142132416</v>
+        <v>254169.5142132414</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>3849.713455507073</v>
       </c>
       <c r="D3" t="n">
-        <v>2482.778886659007</v>
+        <v>2482.778886658995</v>
       </c>
       <c r="E3" t="n">
         <v>515158.9699399753</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131809.9822125095</v>
+        <v>131809.9822125096</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>310893.1408571142</v>
       </c>
       <c r="E4" t="n">
-        <v>23130.23717802405</v>
+        <v>23130.23717802404</v>
       </c>
       <c r="F4" t="n">
-        <v>23130.23717802403</v>
+        <v>23130.23717802404</v>
       </c>
       <c r="G4" t="n">
-        <v>23130.23717802405</v>
+        <v>23130.23717802404</v>
       </c>
       <c r="H4" t="n">
         <v>23130.23717802405</v>
@@ -26447,13 +26447,13 @@
         <v>23130.23717802404</v>
       </c>
       <c r="L4" t="n">
-        <v>23130.23717802405</v>
+        <v>23130.23717802404</v>
       </c>
       <c r="M4" t="n">
-        <v>23130.23717802405</v>
+        <v>23130.23717802404</v>
       </c>
       <c r="N4" t="n">
-        <v>23130.23717802405</v>
+        <v>23130.23717802404</v>
       </c>
       <c r="O4" t="n">
         <v>23130.23717802404</v>
@@ -26484,10 +26484,10 @@
         <v>42839.04122415993</v>
       </c>
       <c r="G5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415993</v>
       </c>
       <c r="H5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415993</v>
       </c>
       <c r="I5" t="n">
         <v>42839.04122415993</v>
@@ -26499,16 +26499,16 @@
         <v>42839.04122415993</v>
       </c>
       <c r="L5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415993</v>
       </c>
       <c r="M5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415993</v>
       </c>
       <c r="N5" t="n">
-        <v>42839.04122415995</v>
+        <v>42839.04122415993</v>
       </c>
       <c r="O5" t="n">
-        <v>42839.04122415994</v>
+        <v>42839.04122415993</v>
       </c>
       <c r="P5" t="n">
         <v>42839.04122415994</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46136.95511224988</v>
+        <v>46115.2719921585</v>
       </c>
       <c r="C6" t="n">
-        <v>80209.89618424515</v>
+        <v>80188.21644627985</v>
       </c>
       <c r="D6" t="n">
-        <v>82338.18534093618</v>
+        <v>82316.50792220341</v>
       </c>
       <c r="E6" t="n">
-        <v>-326958.7341289178</v>
+        <v>-327567.6090849015</v>
       </c>
       <c r="F6" t="n">
-        <v>188200.2358110576</v>
+        <v>187591.3608550738</v>
       </c>
       <c r="G6" t="n">
-        <v>188200.2358110576</v>
+        <v>187591.3608550738</v>
       </c>
       <c r="H6" t="n">
-        <v>188200.2358110575</v>
+        <v>187591.3608550737</v>
       </c>
       <c r="I6" t="n">
-        <v>188200.2358110573</v>
+        <v>187591.3608550738</v>
       </c>
       <c r="J6" t="n">
-        <v>188200.2358110574</v>
+        <v>187591.3608550738</v>
       </c>
       <c r="K6" t="n">
-        <v>188200.2358110574</v>
+        <v>187591.3608550737</v>
       </c>
       <c r="L6" t="n">
-        <v>188200.2358110577</v>
+        <v>187591.3608550738</v>
       </c>
       <c r="M6" t="n">
-        <v>56390.25359854806</v>
+        <v>55781.37864256429</v>
       </c>
       <c r="N6" t="n">
-        <v>188200.2358110576</v>
+        <v>187591.3608550737</v>
       </c>
       <c r="O6" t="n">
-        <v>188200.2358110577</v>
+        <v>187591.3608550736</v>
       </c>
       <c r="P6" t="n">
-        <v>188200.2358110576</v>
+        <v>187591.3608550736</v>
       </c>
     </row>
   </sheetData>
@@ -26749,34 +26749,34 @@
         <v>489.9293866726653</v>
       </c>
       <c r="F3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="G3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="H3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726652</v>
       </c>
       <c r="I3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="J3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="K3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="L3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="M3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="N3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="O3" t="n">
-        <v>489.9293866726654</v>
+        <v>489.9293866726653</v>
       </c>
       <c r="P3" t="n">
         <v>489.9293866726654</v>
@@ -26804,10 +26804,10 @@
         <v>528.9240229390762</v>
       </c>
       <c r="G4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="H4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="I4" t="n">
         <v>528.9240229390762</v>
@@ -26819,16 +26819,16 @@
         <v>528.9240229390762</v>
       </c>
       <c r="L4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="M4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N4" t="n">
-        <v>528.9240229390764</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="O4" t="n">
-        <v>528.9240229390763</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="P4" t="n">
         <v>528.9240229390763</v>
@@ -26965,7 +26965,7 @@
         <v>4.227657588613987</v>
       </c>
       <c r="D3" t="n">
-        <v>2.899040518556454</v>
+        <v>2.89904051855644</v>
       </c>
       <c r="E3" t="n">
         <v>444.6509323700208</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>528.9240229390759</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I2" t="n">
-        <v>5.912947058195031</v>
+        <v>5.912947058195032</v>
       </c>
       <c r="J2" t="n">
-        <v>13.01741755736931</v>
+        <v>13.01741755736932</v>
       </c>
       <c r="K2" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L2" t="n">
-        <v>24.20355081735587</v>
+        <v>24.20355081735588</v>
       </c>
       <c r="M2" t="n">
         <v>26.93111380928054</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08206226804309515</v>
+        <v>0.08206226804309516</v>
       </c>
       <c r="H3" t="n">
         <v>0.7925487466267348</v>
@@ -31129,7 +31129,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J3" t="n">
-        <v>7.753084718931197</v>
+        <v>7.753084718931198</v>
       </c>
       <c r="K3" t="n">
         <v>13.25125667781857</v>
@@ -31156,13 +31156,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S3" t="n">
-        <v>1.524270636677665</v>
+        <v>1.524270636677666</v>
       </c>
       <c r="T3" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00539883342388784</v>
+        <v>0.005398833423887841</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6116789763798959</v>
+        <v>0.611678976379896</v>
       </c>
       <c r="I4" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J4" t="n">
-        <v>4.864036195609864</v>
+        <v>4.864036195609865</v>
       </c>
       <c r="K4" t="n">
-        <v>7.99310564226489</v>
+        <v>7.993105642264891</v>
       </c>
       <c r="L4" t="n">
         <v>10.22842329214398</v>
@@ -31223,22 +31223,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O4" t="n">
-        <v>9.7243197594628</v>
+        <v>9.724319759462801</v>
       </c>
       <c r="P4" t="n">
-        <v>8.320835482370272</v>
+        <v>8.320835482370274</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.760915185516582</v>
+        <v>5.760915185516583</v>
       </c>
       <c r="R4" t="n">
-        <v>3.093419444964174</v>
+        <v>3.093419444964175</v>
       </c>
       <c r="S4" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2939561542929967</v>
+        <v>0.2939561542929968</v>
       </c>
       <c r="U4" t="n">
         <v>0.003752631756931878</v>
@@ -31284,13 +31284,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I5" t="n">
-        <v>6.568170250898711</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J5" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K5" t="n">
-        <v>21.67163962266407</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L5" t="n">
         <v>26.88558528937678</v>
@@ -31314,7 +31314,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S5" t="n">
-        <v>3.882295041627764</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T5" t="n">
         <v>0.7457924978486244</v>
@@ -31360,7 +31360,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8803723504958667</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I6" t="n">
         <v>3.138475454765011</v>
@@ -31381,7 +31381,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>21.68826471269267</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P6" t="n">
         <v>17.40674450312854</v>
@@ -31396,10 +31396,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3674215213922348</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005997086856238875</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31463,13 +31463,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P7" t="n">
-        <v>9.242880671860769</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q7" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R7" t="n">
-        <v>3.436206238952448</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S7" t="n">
         <v>1.331825184001586</v>
@@ -31758,28 +31758,28 @@
         <v>20.1708113819555</v>
       </c>
       <c r="I11" t="n">
-        <v>75.93166906411228</v>
+        <v>75.9316690641123</v>
       </c>
       <c r="J11" t="n">
         <v>167.1643991240568</v>
       </c>
       <c r="K11" t="n">
-        <v>250.5361013867861</v>
+        <v>250.5361013867862</v>
       </c>
       <c r="L11" t="n">
         <v>310.8121876878257</v>
       </c>
       <c r="M11" t="n">
-        <v>345.8384458998457</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N11" t="n">
-        <v>351.4344735174687</v>
+        <v>351.4344735174688</v>
       </c>
       <c r="O11" t="n">
         <v>331.8496078341469</v>
       </c>
       <c r="P11" t="n">
-        <v>283.2259626744225</v>
+        <v>283.2259626744226</v>
       </c>
       <c r="Q11" t="n">
         <v>212.6909027338604</v>
@@ -31791,7 +31791,7 @@
         <v>44.88147094996327</v>
       </c>
       <c r="T11" t="n">
-        <v>8.621772422752127</v>
+        <v>8.621772422752128</v>
       </c>
       <c r="U11" t="n">
         <v>0.1575652298846761</v>
@@ -31840,7 +31840,7 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J12" t="n">
-        <v>99.56197092750834</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K12" t="n">
         <v>170.1672663125238</v>
@@ -31849,7 +31849,7 @@
         <v>228.8108895021726</v>
       </c>
       <c r="M12" t="n">
-        <v>267.0115157366025</v>
+        <v>267.0115157366026</v>
       </c>
       <c r="N12" t="n">
         <v>274.0785160405885</v>
@@ -31858,7 +31858,7 @@
         <v>250.7282965927554</v>
       </c>
       <c r="P12" t="n">
-        <v>201.2315626127783</v>
+        <v>201.2315626127784</v>
       </c>
       <c r="Q12" t="n">
         <v>134.5179704690684</v>
@@ -31867,13 +31867,13 @@
         <v>65.42868299753069</v>
       </c>
       <c r="S12" t="n">
-        <v>19.57406559017675</v>
+        <v>19.57406559017676</v>
       </c>
       <c r="T12" t="n">
         <v>4.247595342945087</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06932963018952813</v>
+        <v>0.06932963018952815</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8834792218687405</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H13" t="n">
-        <v>7.85493344534208</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I13" t="n">
         <v>26.56862969037995</v>
       </c>
       <c r="J13" t="n">
-        <v>62.46198098611995</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K13" t="n">
         <v>102.6442223225682</v>
@@ -31943,7 +31943,7 @@
         <v>73.97933738757246</v>
       </c>
       <c r="R13" t="n">
-        <v>39.72443846693445</v>
+        <v>39.72443846693446</v>
       </c>
       <c r="S13" t="n">
         <v>15.39663334838523</v>
@@ -31952,7 +31952,7 @@
         <v>3.774865766166436</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04818977573829499</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H14" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I14" t="n">
         <v>75.9316690641123</v>
@@ -32007,7 +32007,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M14" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N14" t="n">
         <v>351.4344735174688</v>
@@ -32019,7 +32019,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R14" t="n">
         <v>123.7207108967912</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H15" t="n">
         <v>10.17758971182273</v>
@@ -32077,22 +32077,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J15" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K15" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L15" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M15" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N15" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O15" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P15" t="n">
         <v>201.2315626127784</v>
@@ -32101,13 +32101,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R15" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S15" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T15" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U15" t="n">
         <v>0.06932963018952815</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H16" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I16" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J16" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K16" t="n">
         <v>102.6442223225682</v>
@@ -32165,10 +32165,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M16" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N16" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O16" t="n">
         <v>124.8757721965017</v>
@@ -32177,7 +32177,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R16" t="n">
         <v>39.72443846693446</v>
@@ -32186,10 +32186,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T16" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H17" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I17" t="n">
         <v>75.9316690641123</v>
@@ -32244,7 +32244,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M17" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N17" t="n">
         <v>351.4344735174688</v>
@@ -32256,7 +32256,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R17" t="n">
         <v>123.7207108967912</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H18" t="n">
         <v>10.17758971182273</v>
@@ -32314,22 +32314,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J18" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K18" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L18" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M18" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N18" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O18" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P18" t="n">
         <v>201.2315626127784</v>
@@ -32338,13 +32338,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R18" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S18" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T18" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U18" t="n">
         <v>0.06932963018952815</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H19" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I19" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J19" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K19" t="n">
         <v>102.6442223225682</v>
@@ -32402,10 +32402,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M19" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N19" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O19" t="n">
         <v>124.8757721965017</v>
@@ -32414,7 +32414,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R19" t="n">
         <v>39.72443846693446</v>
@@ -32423,10 +32423,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T19" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,43 +32466,43 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H20" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I20" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411228</v>
       </c>
       <c r="J20" t="n">
         <v>167.1643991240568</v>
       </c>
       <c r="K20" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867861</v>
       </c>
       <c r="L20" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878256</v>
       </c>
       <c r="M20" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998457</v>
       </c>
       <c r="N20" t="n">
-        <v>351.4344735174688</v>
+        <v>351.4344735174687</v>
       </c>
       <c r="O20" t="n">
-        <v>331.8496078341469</v>
+        <v>331.8496078341468</v>
       </c>
       <c r="P20" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744225</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R20" t="n">
         <v>123.7207108967912</v>
       </c>
       <c r="S20" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996326</v>
       </c>
       <c r="T20" t="n">
-        <v>8.621772422752128</v>
+        <v>8.621772422752127</v>
       </c>
       <c r="U20" t="n">
         <v>0.1575652298846761</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H21" t="n">
         <v>10.17758971182273</v>
       </c>
       <c r="I21" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585304</v>
       </c>
       <c r="J21" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750833</v>
       </c>
       <c r="K21" t="n">
-        <v>170.1672663125238</v>
+        <v>170.1672663125237</v>
       </c>
       <c r="L21" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M21" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366025</v>
       </c>
       <c r="N21" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O21" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P21" t="n">
-        <v>201.2315626127784</v>
+        <v>201.2315626127783</v>
       </c>
       <c r="Q21" t="n">
         <v>134.5179704690684</v>
       </c>
       <c r="R21" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753067</v>
       </c>
       <c r="S21" t="n">
-        <v>19.57406559017676</v>
+        <v>19.57406559017675</v>
       </c>
       <c r="T21" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945086</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952812</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687404</v>
       </c>
       <c r="H22" t="n">
-        <v>7.854933445342082</v>
+        <v>7.85493344534208</v>
       </c>
       <c r="I22" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J22" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611995</v>
       </c>
       <c r="K22" t="n">
         <v>102.6442223225682</v>
@@ -32639,31 +32639,31 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M22" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N22" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O22" t="n">
-        <v>124.8757721965017</v>
+        <v>124.8757721965016</v>
       </c>
       <c r="P22" t="n">
         <v>106.8527960703793</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757244</v>
       </c>
       <c r="R22" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693444</v>
       </c>
       <c r="S22" t="n">
         <v>15.39663334838523</v>
       </c>
       <c r="T22" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166435</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.04818977573829499</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H23" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I23" t="n">
         <v>75.9316690641123</v>
@@ -32718,7 +32718,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M23" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N23" t="n">
         <v>351.4344735174688</v>
@@ -32730,7 +32730,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R23" t="n">
         <v>123.7207108967912</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H24" t="n">
         <v>10.17758971182273</v>
@@ -32788,22 +32788,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J24" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K24" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L24" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M24" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N24" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O24" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P24" t="n">
         <v>201.2315626127784</v>
@@ -32812,13 +32812,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R24" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S24" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T24" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U24" t="n">
         <v>0.06932963018952815</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H25" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I25" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J25" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K25" t="n">
         <v>102.6442223225682</v>
@@ -32876,10 +32876,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M25" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N25" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O25" t="n">
         <v>124.8757721965017</v>
@@ -32888,7 +32888,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R25" t="n">
         <v>39.72443846693446</v>
@@ -32897,10 +32897,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T25" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H26" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I26" t="n">
         <v>75.9316690641123</v>
@@ -32955,7 +32955,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M26" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N26" t="n">
         <v>351.4344735174688</v>
@@ -32967,7 +32967,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R26" t="n">
         <v>123.7207108967912</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H27" t="n">
         <v>10.17758971182273</v>
@@ -33025,22 +33025,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J27" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K27" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L27" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M27" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N27" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O27" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P27" t="n">
         <v>201.2315626127784</v>
@@ -33049,13 +33049,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R27" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S27" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T27" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U27" t="n">
         <v>0.06932963018952815</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H28" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I28" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J28" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K28" t="n">
         <v>102.6442223225682</v>
@@ -33113,10 +33113,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M28" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N28" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O28" t="n">
         <v>124.8757721965017</v>
@@ -33125,7 +33125,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R28" t="n">
         <v>39.72443846693446</v>
@@ -33134,10 +33134,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T28" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H29" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I29" t="n">
         <v>75.9316690641123</v>
@@ -33192,7 +33192,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M29" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N29" t="n">
         <v>351.4344735174688</v>
@@ -33204,7 +33204,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R29" t="n">
         <v>123.7207108967912</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H30" t="n">
         <v>10.17758971182273</v>
@@ -33262,22 +33262,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J30" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K30" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L30" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M30" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N30" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O30" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P30" t="n">
         <v>201.2315626127784</v>
@@ -33286,13 +33286,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R30" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S30" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T30" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U30" t="n">
         <v>0.06932963018952815</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H31" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I31" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J31" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K31" t="n">
         <v>102.6442223225682</v>
@@ -33350,10 +33350,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M31" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N31" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O31" t="n">
         <v>124.8757721965017</v>
@@ -33362,7 +33362,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R31" t="n">
         <v>39.72443846693446</v>
@@ -33371,10 +33371,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T31" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H32" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I32" t="n">
         <v>75.9316690641123</v>
@@ -33429,7 +33429,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M32" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N32" t="n">
         <v>351.4344735174688</v>
@@ -33441,7 +33441,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R32" t="n">
         <v>123.7207108967912</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H33" t="n">
         <v>10.17758971182273</v>
@@ -33499,22 +33499,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J33" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K33" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L33" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M33" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N33" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O33" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P33" t="n">
         <v>201.2315626127784</v>
@@ -33523,13 +33523,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R33" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S33" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T33" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U33" t="n">
         <v>0.06932963018952815</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H34" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I34" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J34" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K34" t="n">
         <v>102.6442223225682</v>
@@ -33587,10 +33587,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M34" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N34" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O34" t="n">
         <v>124.8757721965017</v>
@@ -33599,7 +33599,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R34" t="n">
         <v>39.72443846693446</v>
@@ -33608,10 +33608,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T34" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H35" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I35" t="n">
         <v>75.9316690641123</v>
@@ -33666,7 +33666,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M35" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N35" t="n">
         <v>351.4344735174688</v>
@@ -33678,7 +33678,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R35" t="n">
         <v>123.7207108967912</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H36" t="n">
         <v>10.17758971182273</v>
@@ -33736,22 +33736,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J36" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K36" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L36" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M36" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N36" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O36" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P36" t="n">
         <v>201.2315626127784</v>
@@ -33760,13 +33760,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R36" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S36" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T36" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U36" t="n">
         <v>0.06932963018952815</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H37" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I37" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J37" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K37" t="n">
         <v>102.6442223225682</v>
@@ -33824,10 +33824,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M37" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N37" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O37" t="n">
         <v>124.8757721965017</v>
@@ -33836,7 +33836,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R37" t="n">
         <v>39.72443846693446</v>
@@ -33845,10 +33845,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T37" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H38" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I38" t="n">
         <v>75.9316690641123</v>
@@ -33903,7 +33903,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M38" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N38" t="n">
         <v>351.4344735174688</v>
@@ -33915,7 +33915,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R38" t="n">
         <v>123.7207108967912</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H39" t="n">
         <v>10.17758971182273</v>
@@ -33973,22 +33973,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J39" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K39" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L39" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M39" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N39" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O39" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P39" t="n">
         <v>201.2315626127784</v>
@@ -33997,13 +33997,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R39" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S39" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T39" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U39" t="n">
         <v>0.06932963018952815</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H40" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I40" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J40" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K40" t="n">
         <v>102.6442223225682</v>
@@ -34061,10 +34061,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M40" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N40" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O40" t="n">
         <v>124.8757721965017</v>
@@ -34073,7 +34073,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R40" t="n">
         <v>39.72443846693446</v>
@@ -34082,10 +34082,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T40" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H41" t="n">
-        <v>20.17081138195551</v>
+        <v>20.1708113819555</v>
       </c>
       <c r="I41" t="n">
         <v>75.9316690641123</v>
@@ -34140,19 +34140,19 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M41" t="n">
-        <v>345.8384458998459</v>
+        <v>345.8384458998458</v>
       </c>
       <c r="N41" t="n">
         <v>351.4344735174688</v>
       </c>
       <c r="O41" t="n">
-        <v>331.8496078341473</v>
+        <v>331.8496078341469</v>
       </c>
       <c r="P41" t="n">
         <v>283.2259626744226</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.6909027338605</v>
+        <v>212.6909027338604</v>
       </c>
       <c r="R41" t="n">
         <v>123.7207108967912</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.053810378880828</v>
+        <v>1.053810378880827</v>
       </c>
       <c r="H42" t="n">
         <v>10.17758971182273</v>
@@ -34210,22 +34210,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J42" t="n">
-        <v>99.56197092750837</v>
+        <v>99.56197092750836</v>
       </c>
       <c r="K42" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L42" t="n">
-        <v>228.8108895021727</v>
+        <v>228.8108895021726</v>
       </c>
       <c r="M42" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N42" t="n">
-        <v>274.0785160405886</v>
+        <v>274.0785160405885</v>
       </c>
       <c r="O42" t="n">
-        <v>250.7282965927555</v>
+        <v>250.7282965927554</v>
       </c>
       <c r="P42" t="n">
         <v>201.2315626127784</v>
@@ -34234,13 +34234,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R42" t="n">
-        <v>65.4286829975307</v>
+        <v>65.42868299753069</v>
       </c>
       <c r="S42" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T42" t="n">
-        <v>4.247595342945088</v>
+        <v>4.247595342945087</v>
       </c>
       <c r="U42" t="n">
         <v>0.06932963018952815</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8834792218687407</v>
+        <v>0.8834792218687406</v>
       </c>
       <c r="H43" t="n">
-        <v>7.854933445342082</v>
+        <v>7.854933445342081</v>
       </c>
       <c r="I43" t="n">
-        <v>26.56862969037996</v>
+        <v>26.56862969037995</v>
       </c>
       <c r="J43" t="n">
-        <v>62.46198098611997</v>
+        <v>62.46198098611996</v>
       </c>
       <c r="K43" t="n">
         <v>102.6442223225682</v>
@@ -34298,10 +34298,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M43" t="n">
-        <v>138.48938384257</v>
+        <v>138.4893838425699</v>
       </c>
       <c r="N43" t="n">
-        <v>135.1964158337866</v>
+        <v>135.1964158337865</v>
       </c>
       <c r="O43" t="n">
         <v>124.8757721965017</v>
@@ -34310,7 +34310,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.97933738757247</v>
+        <v>73.97933738757246</v>
       </c>
       <c r="R43" t="n">
         <v>39.72443846693446</v>
@@ -34319,10 +34319,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T43" t="n">
-        <v>3.774865766166437</v>
+        <v>3.774865766166436</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04818977573829501</v>
+        <v>0.048189775738295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.38376652014878</v>
+        <v>41.3837665201488</v>
       </c>
       <c r="J11" t="n">
         <v>137.7444396384703</v>
@@ -35415,25 +35415,25 @@
         <v>214.7715005919768</v>
       </c>
       <c r="L11" t="n">
-        <v>272.5001452552027</v>
+        <v>272.5001452552028</v>
       </c>
       <c r="M11" t="n">
-        <v>308.4071830004139</v>
+        <v>308.407183000414</v>
       </c>
       <c r="N11" t="n">
-        <v>314.1548506830227</v>
+        <v>314.1548506830228</v>
       </c>
       <c r="O11" t="n">
         <v>294.4586484781228</v>
       </c>
       <c r="P11" t="n">
-        <v>245.6506008641912</v>
+        <v>245.6506008641913</v>
       </c>
       <c r="Q11" t="n">
         <v>176.5662281292624</v>
       </c>
       <c r="R11" t="n">
-        <v>88.68806100199473</v>
+        <v>88.68806100199475</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>20.11011971585305</v>
       </c>
       <c r="J12" t="n">
-        <v>78.95085659417501</v>
+        <v>359.753683059012</v>
       </c>
       <c r="K12" t="n">
         <v>147.7680324791904</v>
       </c>
       <c r="L12" t="n">
-        <v>206.295802787943</v>
+        <v>206.2958027879431</v>
       </c>
       <c r="M12" t="n">
         <v>243.9147352242746</v>
       </c>
       <c r="N12" t="n">
-        <v>252.7354878270468</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O12" t="n">
-        <v>508.3592333353704</v>
+        <v>227.5564068705332</v>
       </c>
       <c r="P12" t="n">
         <v>179.4607214079497</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.82522500221809</v>
+        <v>109.0246347467786</v>
       </c>
       <c r="K13" t="n">
-        <v>81.6795678698562</v>
+        <v>81.67956786985621</v>
       </c>
       <c r="L13" t="n">
-        <v>109.4305055083114</v>
+        <v>489.6213071155487</v>
       </c>
       <c r="M13" t="n">
-        <v>258.3454187199773</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N13" t="n">
-        <v>516.5009722742268</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O13" t="n">
         <v>483.8940839942421</v>
       </c>
       <c r="P13" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q13" t="n">
         <v>202.2622972267259</v>
@@ -35649,7 +35649,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K14" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L14" t="n">
         <v>272.5001452552028</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.80436804354179</v>
+        <v>20.11011971585305</v>
       </c>
       <c r="J15" t="n">
-        <v>78.95085659417504</v>
+        <v>359.753683059012</v>
       </c>
       <c r="K15" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L15" t="n">
         <v>206.2958027879431</v>
@@ -35740,7 +35740,7 @@
         <v>252.7354878270469</v>
       </c>
       <c r="O15" t="n">
-        <v>378.1442776491905</v>
+        <v>227.5564068705332</v>
       </c>
       <c r="P15" t="n">
         <v>179.4607214079497</v>
@@ -35749,7 +35749,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R15" t="n">
-        <v>148.2764709618773</v>
+        <v>41.75576360338654</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221809</v>
       </c>
       <c r="K16" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985621</v>
       </c>
       <c r="L16" t="n">
-        <v>109.4305055083114</v>
+        <v>307.6697820480069</v>
       </c>
       <c r="M16" t="n">
         <v>528.9240229390762</v>
       </c>
       <c r="N16" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O16" t="n">
-        <v>439.7822418534627</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P16" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.35977462278753</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K17" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L17" t="n">
         <v>272.5001452552028</v>
@@ -35962,10 +35962,10 @@
         <v>43.80436804354179</v>
       </c>
       <c r="J18" t="n">
-        <v>78.95085659417504</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K18" t="n">
-        <v>404.8766106163387</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L18" t="n">
         <v>206.2958027879431</v>
@@ -35986,7 +35986,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R18" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.8252250022181</v>
+        <v>120.5340296973907</v>
       </c>
       <c r="K19" t="n">
-        <v>81.67956786985623</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L19" t="n">
-        <v>489.6213071155487</v>
+        <v>392.1906430943394</v>
       </c>
       <c r="M19" t="n">
         <v>115.9139439510841</v>
@@ -36056,13 +36056,13 @@
         <v>516.5009722742268</v>
       </c>
       <c r="O19" t="n">
-        <v>246.1347571558989</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P19" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014878</v>
       </c>
       <c r="J20" t="n">
         <v>137.7444396384703</v>
       </c>
       <c r="K20" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919767</v>
       </c>
       <c r="L20" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552027</v>
       </c>
       <c r="M20" t="n">
-        <v>308.407183000414</v>
+        <v>308.4071830004139</v>
       </c>
       <c r="N20" t="n">
-        <v>314.1548506830228</v>
+        <v>314.1548506830227</v>
       </c>
       <c r="O20" t="n">
-        <v>294.4586484781228</v>
+        <v>294.4586484781227</v>
       </c>
       <c r="P20" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641912</v>
       </c>
       <c r="Q20" t="n">
         <v>176.5662281292624</v>
       </c>
       <c r="R20" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199473</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354177</v>
       </c>
       <c r="J21" t="n">
-        <v>78.95085659417504</v>
+        <v>78.95085659417499</v>
       </c>
       <c r="K21" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L21" t="n">
-        <v>487.0986292527801</v>
+        <v>206.295802787943</v>
       </c>
       <c r="M21" t="n">
         <v>243.9147352242746</v>
       </c>
       <c r="N21" t="n">
-        <v>252.7354878270469</v>
+        <v>403.3233586057051</v>
       </c>
       <c r="O21" t="n">
-        <v>227.5564068705332</v>
+        <v>227.5564068705331</v>
       </c>
       <c r="P21" t="n">
-        <v>179.4607214079497</v>
+        <v>179.4607214079496</v>
       </c>
       <c r="Q21" t="n">
         <v>111.7709321800899</v>
       </c>
       <c r="R21" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>120.5340296973907</v>
       </c>
       <c r="K22" t="n">
-        <v>331.4599811163432</v>
+        <v>331.4599811163431</v>
       </c>
       <c r="L22" t="n">
-        <v>109.4305055083114</v>
+        <v>489.6213071155487</v>
       </c>
       <c r="M22" t="n">
         <v>115.9139439510841</v>
       </c>
       <c r="N22" t="n">
-        <v>330.4432291014612</v>
+        <v>114.4475148581861</v>
       </c>
       <c r="O22" t="n">
-        <v>483.8940839942422</v>
+        <v>319.6989966302791</v>
       </c>
       <c r="P22" t="n">
         <v>400.387353567249</v>
@@ -36360,7 +36360,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K23" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L23" t="n">
         <v>272.5001452552028</v>
@@ -36436,10 +36436,10 @@
         <v>20.11011971585305</v>
       </c>
       <c r="J24" t="n">
-        <v>78.95085659417504</v>
+        <v>359.753683059012</v>
       </c>
       <c r="K24" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L24" t="n">
         <v>206.2958027879431</v>
@@ -36448,7 +36448,7 @@
         <v>243.9147352242746</v>
       </c>
       <c r="N24" t="n">
-        <v>528.9240229390762</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O24" t="n">
         <v>227.5564068705332</v>
@@ -36460,7 +36460,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R24" t="n">
-        <v>46.37005495619426</v>
+        <v>41.75576360338654</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.8252250022181</v>
+        <v>120.5340296973907</v>
       </c>
       <c r="K25" t="n">
-        <v>225.4377403276767</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L25" t="n">
         <v>489.6213071155487</v>
@@ -36527,10 +36527,10 @@
         <v>115.9139439510841</v>
       </c>
       <c r="N25" t="n">
-        <v>516.5009722742268</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O25" t="n">
-        <v>102.3765846980773</v>
+        <v>319.6989966302791</v>
       </c>
       <c r="P25" t="n">
         <v>400.387353567249</v>
@@ -36597,7 +36597,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K26" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L26" t="n">
         <v>272.5001452552028</v>
@@ -36615,10 +36615,10 @@
         <v>245.6506008641913</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292623</v>
       </c>
       <c r="R26" t="n">
-        <v>88.68806100199481</v>
+        <v>88.68806100199475</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J27" t="n">
-        <v>78.95085659417504</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K27" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L27" t="n">
         <v>206.2958027879431</v>
       </c>
       <c r="M27" t="n">
-        <v>524.7175616891116</v>
+        <v>243.9147352242746</v>
       </c>
       <c r="N27" t="n">
         <v>252.7354878270469</v>
@@ -36697,7 +36697,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R27" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.8252250022181</v>
+        <v>41.82522500221809</v>
       </c>
       <c r="K28" t="n">
-        <v>214.4811187557254</v>
+        <v>127.0163218056134</v>
       </c>
       <c r="L28" t="n">
-        <v>489.6213071155487</v>
+        <v>109.4305055083114</v>
       </c>
       <c r="M28" t="n">
         <v>528.9240229390762</v>
       </c>
       <c r="N28" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O28" t="n">
-        <v>102.3765846980773</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P28" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q28" t="n">
         <v>202.2622972267259</v>
@@ -36834,7 +36834,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K29" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L29" t="n">
         <v>272.5001452552028</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J30" t="n">
-        <v>78.95085659417504</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K30" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L30" t="n">
         <v>206.2958027879431</v>
@@ -36925,7 +36925,7 @@
         <v>252.7354878270469</v>
       </c>
       <c r="O30" t="n">
-        <v>508.3592333353702</v>
+        <v>227.5564068705332</v>
       </c>
       <c r="P30" t="n">
         <v>179.4607214079497</v>
@@ -36934,7 +36934,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R30" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.8252250022181</v>
+        <v>120.5340296973907</v>
       </c>
       <c r="K31" t="n">
-        <v>81.67956786985623</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L31" t="n">
         <v>489.6213071155487</v>
       </c>
       <c r="M31" t="n">
-        <v>194.0699752675959</v>
+        <v>247.0982566221014</v>
       </c>
       <c r="N31" t="n">
         <v>516.5009722742268</v>
       </c>
       <c r="O31" t="n">
-        <v>483.8940839942422</v>
+        <v>102.3765846980772</v>
       </c>
       <c r="P31" t="n">
-        <v>84.47199541239281</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q31" t="n">
         <v>202.2622972267259</v>
@@ -37071,7 +37071,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K32" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L32" t="n">
         <v>272.5001452552028</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J33" t="n">
-        <v>78.95085659417504</v>
+        <v>78.95085659417502</v>
       </c>
       <c r="K33" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L33" t="n">
         <v>206.2958027879431</v>
@@ -37162,16 +37162,16 @@
         <v>252.7354878270469</v>
       </c>
       <c r="O33" t="n">
-        <v>508.3592333353702</v>
+        <v>227.5564068705332</v>
       </c>
       <c r="P33" t="n">
         <v>179.4607214079497</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.7709321800899</v>
+        <v>262.3588029587476</v>
       </c>
       <c r="R33" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.8252250022181</v>
+        <v>120.5340296973907</v>
       </c>
       <c r="K34" t="n">
-        <v>81.67956786985623</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L34" t="n">
-        <v>240.9053587052538</v>
+        <v>489.6213071155487</v>
       </c>
       <c r="M34" t="n">
-        <v>528.9240229390764</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N34" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O34" t="n">
-        <v>483.8940839942422</v>
+        <v>102.3765846980772</v>
       </c>
       <c r="P34" t="n">
-        <v>400.387353567249</v>
+        <v>368.5588306873487</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K35" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L35" t="n">
         <v>272.5001452552028</v>
@@ -37384,10 +37384,10 @@
         <v>43.80436804354179</v>
       </c>
       <c r="J36" t="n">
-        <v>78.95085659417504</v>
+        <v>78.95085659417502</v>
       </c>
       <c r="K36" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L36" t="n">
         <v>206.2958027879431</v>
@@ -37396,7 +37396,7 @@
         <v>243.9147352242746</v>
       </c>
       <c r="N36" t="n">
-        <v>509.8440659641951</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O36" t="n">
         <v>227.5564068705332</v>
@@ -37405,10 +37405,10 @@
         <v>179.4607214079497</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.7709321800899</v>
+        <v>262.3588029587476</v>
       </c>
       <c r="R36" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.8252250022181</v>
+        <v>120.5340296973907</v>
       </c>
       <c r="K37" t="n">
-        <v>81.67956786985623</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L37" t="n">
-        <v>109.4305055083114</v>
+        <v>489.6213071155487</v>
       </c>
       <c r="M37" t="n">
-        <v>411.2479413239165</v>
+        <v>400.0007792260398</v>
       </c>
       <c r="N37" t="n">
         <v>516.5009722742268</v>
       </c>
       <c r="O37" t="n">
-        <v>483.8940839942422</v>
+        <v>102.3765846980772</v>
       </c>
       <c r="P37" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.35977462278753</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K38" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L38" t="n">
         <v>272.5001452552028</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J39" t="n">
-        <v>78.95085659417504</v>
+        <v>78.95085659417502</v>
       </c>
       <c r="K39" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L39" t="n">
         <v>206.2958027879431</v>
@@ -37639,13 +37639,13 @@
         <v>227.5564068705332</v>
       </c>
       <c r="P39" t="n">
-        <v>460.2635478727867</v>
+        <v>179.4607214079497</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.7709321800899</v>
+        <v>262.3588029587476</v>
       </c>
       <c r="R39" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.8252250022181</v>
+        <v>120.5340296973907</v>
       </c>
       <c r="K40" t="n">
-        <v>81.67956786985623</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L40" t="n">
-        <v>109.4305055083114</v>
+        <v>489.6213071155487</v>
       </c>
       <c r="M40" t="n">
-        <v>411.2479413239165</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N40" t="n">
-        <v>516.5009722742268</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O40" t="n">
-        <v>483.8940839942422</v>
+        <v>375.5067984010814</v>
       </c>
       <c r="P40" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.35977462278753</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K41" t="n">
-        <v>214.7715005919769</v>
+        <v>214.7715005919768</v>
       </c>
       <c r="L41" t="n">
         <v>272.5001452552028</v>
@@ -37794,7 +37794,7 @@
         <v>314.1548506830228</v>
       </c>
       <c r="O41" t="n">
-        <v>294.4586484781232</v>
+        <v>294.4586484781228</v>
       </c>
       <c r="P41" t="n">
         <v>245.6506008641913</v>
@@ -37858,10 +37858,10 @@
         <v>20.11011971585305</v>
       </c>
       <c r="J42" t="n">
-        <v>78.95085659417504</v>
+        <v>359.753683059012</v>
       </c>
       <c r="K42" t="n">
-        <v>147.7680324791905</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L42" t="n">
         <v>206.2958027879431</v>
@@ -37879,10 +37879,10 @@
         <v>179.4607214079497</v>
       </c>
       <c r="Q42" t="n">
-        <v>392.5737586449268</v>
+        <v>111.7709321800899</v>
       </c>
       <c r="R42" t="n">
-        <v>41.75576360338655</v>
+        <v>41.75576360338654</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221809</v>
       </c>
       <c r="K43" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985621</v>
       </c>
       <c r="L43" t="n">
-        <v>109.4305055083114</v>
+        <v>307.6697820480069</v>
       </c>
       <c r="M43" t="n">
-        <v>115.9139439510841</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N43" t="n">
         <v>516.5009722742268</v>
       </c>
       <c r="O43" t="n">
-        <v>297.8363408214761</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P43" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J45" t="n">
         <v>78.95085659417504</v>
@@ -38110,16 +38110,16 @@
         <v>252.7354878270469</v>
       </c>
       <c r="O45" t="n">
-        <v>508.35923333537</v>
+        <v>227.5564068705332</v>
       </c>
       <c r="P45" t="n">
         <v>179.4607214079497</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.7709321800899</v>
+        <v>262.3588029587473</v>
       </c>
       <c r="R45" t="n">
-        <v>41.75576360338655</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>41.8252250022181</v>
       </c>
       <c r="K46" t="n">
-        <v>245.9736984475531</v>
+        <v>81.67956786985623</v>
       </c>
       <c r="L46" t="n">
         <v>489.6213071155487</v>
@@ -38186,16 +38186,16 @@
         <v>115.9139439510841</v>
       </c>
       <c r="N46" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O46" t="n">
         <v>483.8940839942422</v>
       </c>
       <c r="P46" t="n">
-        <v>400.387353567249</v>
+        <v>315.5305493328436</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278753</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
